--- a/Champion-Runes.xlsx
+++ b/Champion-Runes.xlsx
@@ -8,10 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duc\Desktop\IRL Useful\ARAM Runes Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BE886B-1B1C-4ED2-992D-781B311670BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878563CF-CC14-462D-8D76-B50B42833F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8610" yWindow="6840" windowWidth="28830" windowHeight="7830" xr2:uid="{05130611-41D6-43C8-B73A-9762CE92870A}"/>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7800" xr2:uid="{0F249C26-87E6-4EFF-B5DE-0EE0792CAA0B}"/>
+    <workbookView xWindow="20115" yWindow="345" windowWidth="3960" windowHeight="8685" tabRatio="646" firstSheet="4" activeTab="4" xr2:uid="{05130611-41D6-43C8-B73A-9762CE92870A}"/>
+    <workbookView xWindow="-24540" yWindow="2085" windowWidth="28800" windowHeight="7830" xr2:uid="{0F249C26-87E6-4EFF-B5DE-0EE0792CAA0B}"/>
+    <workbookView xWindow="24420" yWindow="8175" windowWidth="3480" windowHeight="7830" firstSheet="6" activeTab="6" xr2:uid="{B0B8A4CF-9A6F-48B0-AD68-9ED65BEAE22B}"/>
+    <workbookView xWindow="24210" yWindow="525" windowWidth="4455" windowHeight="8670" firstSheet="2" activeTab="2" xr2:uid="{FF81866E-A5AA-4548-837C-48FE481E8A96}"/>
+    <workbookView xWindow="15855" yWindow="360" windowWidth="3735" windowHeight="7830" firstSheet="5" activeTab="5" xr2:uid="{3EC68EC8-DD93-4836-B4ED-D69B4814133D}"/>
+    <workbookView xWindow="16050" yWindow="7665" windowWidth="4395" windowHeight="8670" firstSheet="1" activeTab="1" xr2:uid="{E34CFB41-02AE-4BB4-960D-A9D095459DFB}"/>
+    <workbookView xWindow="20685" yWindow="8070" windowWidth="3675" windowHeight="7830" activeTab="3" xr2:uid="{01F08989-AD10-4245-9BC1-75968EBDD16D}"/>
   </bookViews>
   <sheets>
     <sheet name="Champion Runes" sheetId="1" r:id="rId1"/>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="166">
   <si>
     <t>Keystone</t>
   </si>
@@ -1945,12 +1950,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809EE2C-19B1-4BE7-BC2A-D94C2024DB91}">
   <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="1">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
+    <sheetView workbookViewId="4"/>
+    <sheetView workbookViewId="5"/>
+    <sheetView workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2055,13 +2065,64 @@
       <c r="E3" s="2">
         <v>27</v>
       </c>
+      <c r="F3" s="2">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2071,6 +2132,36 @@
       <c r="B5" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C5" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2079,6 +2170,36 @@
       <c r="B6" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C6" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2087,6 +2208,36 @@
       <c r="B7" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H7" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2095,8 +2246,35 @@
       <c r="B8" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28</v>
+      </c>
       <c r="E8" s="2">
         <v>27</v>
+      </c>
+      <c r="F8" s="2">
+        <v>72</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2106,6 +2284,36 @@
       <c r="B9" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="2">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2114,6 +2322,36 @@
       <c r="B10" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -2122,6 +2360,36 @@
       <c r="B11" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2">
+        <v>22</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="2">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -2130,6 +2398,36 @@
       <c r="B12" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C12" s="2">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2138,6 +2436,36 @@
       <c r="B13" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2">
+        <v>48</v>
+      </c>
+      <c r="F13" s="2">
+        <v>49</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="2">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K13" s="2">
+        <v>4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -2146,9 +2474,36 @@
       <c r="B14" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>29</v>
+      </c>
       <c r="E14" s="2">
         <v>27</v>
       </c>
+      <c r="F14" s="2">
+        <v>72</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2156,6 +2511,36 @@
       </c>
       <c r="B15" s="2" t="s">
         <v>147</v>
+      </c>
+      <c r="C15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2">
+        <v>48</v>
+      </c>
+      <c r="F15" s="2">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4</v>
+      </c>
+      <c r="L15" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2165,604 +2550,2584 @@
       <c r="B16" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2">
+        <v>22</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="2">
+        <v>29</v>
+      </c>
+      <c r="I16" s="2">
+        <v>31</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>69</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>22</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="2">
+        <v>66</v>
+      </c>
+      <c r="I17" s="2">
+        <v>50</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>4</v>
+      </c>
+      <c r="L17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="2">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2">
+        <v>22</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="2">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2">
+        <v>72</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="2">
+        <v>55</v>
+      </c>
+      <c r="I20" s="2">
+        <v>53</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="2">
+        <v>51</v>
+      </c>
+      <c r="I21" s="2">
+        <v>50</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2">
+        <v>50</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2">
+        <v>22</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2">
+        <v>49</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>4</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="2">
+        <v>55</v>
+      </c>
+      <c r="I24" s="2">
+        <v>53</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30</v>
+      </c>
       <c r="E25" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <v>72</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2">
+        <v>22</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>30</v>
+      </c>
       <c r="E26" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <v>31</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2">
+        <v>22</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30</v>
+      </c>
       <c r="E27" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="2">
+        <v>72</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H27" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2">
+        <v>22</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2">
+        <v>58</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2">
+        <v>22</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>29</v>
+      </c>
       <c r="E29" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2">
+        <v>72</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="2">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2">
+        <v>22</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <v>69</v>
+      </c>
+      <c r="D30" s="2">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2">
+        <v>21</v>
+      </c>
+      <c r="F30" s="2">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="2">
+        <v>66</v>
+      </c>
+      <c r="I30" s="2">
+        <v>50</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C31" s="2">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
       <c r="E31" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2">
+        <v>72</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="2">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2">
+        <v>22</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45</v>
+      </c>
+      <c r="E32" s="2">
+        <v>48</v>
+      </c>
+      <c r="F32" s="2">
+        <v>49</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2">
+        <v>20</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>4</v>
+      </c>
+      <c r="L32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2">
+        <v>66</v>
+      </c>
+      <c r="F33" s="2">
+        <v>50</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2">
+        <v>22</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <v>69</v>
+      </c>
+      <c r="D34" s="2">
+        <v>17</v>
+      </c>
+      <c r="E34" s="2">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="2">
+        <v>66</v>
+      </c>
+      <c r="I34" s="2">
+        <v>50</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2">
+        <v>22</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="2">
+        <v>51</v>
+      </c>
+      <c r="I35" s="2">
+        <v>50</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+      <c r="K35" s="2">
+        <v>4</v>
+      </c>
+      <c r="L35" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45</v>
+      </c>
+      <c r="E36" s="2">
+        <v>66</v>
+      </c>
+      <c r="F36" s="2">
+        <v>50</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>72</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>4</v>
+      </c>
+      <c r="L36" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>17</v>
+      </c>
+      <c r="E37" s="2">
+        <v>19</v>
+      </c>
+      <c r="F37" s="2">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>72</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2">
+        <v>17</v>
+      </c>
+      <c r="E38" s="2">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2">
+        <v>22</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="2">
+        <v>51</v>
+      </c>
+      <c r="I38" s="2">
+        <v>50</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>4</v>
+      </c>
+      <c r="L38" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2">
+        <v>37</v>
+      </c>
+      <c r="F39" s="2">
+        <v>40</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="2">
+        <v>18</v>
+      </c>
+      <c r="I39" s="2">
+        <v>22</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <v>69</v>
+      </c>
+      <c r="D40" s="2">
+        <v>17</v>
+      </c>
+      <c r="E40" s="2">
+        <v>20</v>
+      </c>
+      <c r="F40" s="2">
+        <v>24</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="2">
+        <v>66</v>
+      </c>
+      <c r="I40" s="2">
+        <v>50</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>4</v>
+      </c>
+      <c r="L40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>69</v>
+      </c>
+      <c r="D41" s="2">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2">
+        <v>19</v>
+      </c>
+      <c r="F41" s="2">
+        <v>22</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="2">
+        <v>66</v>
+      </c>
+      <c r="I41" s="2">
+        <v>50</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2">
+        <v>37</v>
+      </c>
+      <c r="F42" s="2">
+        <v>40</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="2">
+        <v>17</v>
+      </c>
+      <c r="I42" s="2">
+        <v>22</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2">
+        <v>37</v>
+      </c>
+      <c r="F43" s="2">
+        <v>40</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="2">
+        <v>18</v>
+      </c>
+      <c r="I43" s="2">
+        <v>22</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <v>69</v>
+      </c>
+      <c r="D44" s="2">
+        <v>17</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="2">
+        <v>30</v>
+      </c>
+      <c r="I44" s="2">
+        <v>72</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>4</v>
+      </c>
+      <c r="L44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <v>69</v>
+      </c>
+      <c r="D45" s="2">
+        <v>17</v>
+      </c>
+      <c r="E45" s="2">
+        <v>19</v>
+      </c>
+      <c r="F45" s="2">
+        <v>24</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" s="2">
+        <v>29</v>
+      </c>
+      <c r="I45" s="2">
+        <v>31</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2">
+        <v>4</v>
+      </c>
+      <c r="L45" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C46" s="2">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>29</v>
+      </c>
       <c r="E46" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="2">
+        <v>33</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H46" s="2">
+        <v>17</v>
+      </c>
+      <c r="I46" s="2">
+        <v>22</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2">
+        <v>19</v>
+      </c>
+      <c r="F47" s="2">
+        <v>22</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H47" s="2">
+        <v>34</v>
+      </c>
+      <c r="I47" s="2">
+        <v>38</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2">
+        <v>17</v>
+      </c>
+      <c r="E48" s="2">
+        <v>21</v>
+      </c>
+      <c r="F48" s="2">
+        <v>22</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H48" s="2">
+        <v>55</v>
+      </c>
+      <c r="I48" s="2">
+        <v>53</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>17</v>
+      </c>
+      <c r="E49" s="2">
+        <v>19</v>
+      </c>
+      <c r="F49" s="2">
+        <v>22</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H49" s="2">
+        <v>55</v>
+      </c>
+      <c r="I49" s="2">
+        <v>53</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C50" s="2">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2">
+        <v>29</v>
+      </c>
       <c r="E50" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="2">
+        <v>31</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H50" s="2">
+        <v>17</v>
+      </c>
+      <c r="I50" s="2">
+        <v>22</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>17</v>
+      </c>
+      <c r="E51" s="2">
+        <v>21</v>
+      </c>
+      <c r="F51" s="2">
+        <v>22</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H51" s="2">
+        <v>29</v>
+      </c>
+      <c r="I51" s="2">
+        <v>31</v>
+      </c>
+      <c r="J51" s="2">
+        <v>2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C52" s="2">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2">
+        <v>29</v>
+      </c>
       <c r="E52" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="2">
+        <v>31</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="2">
+        <v>17</v>
+      </c>
+      <c r="I52" s="2">
+        <v>22</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C53" s="2">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2">
+        <v>30</v>
+      </c>
       <c r="E53" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="2">
+        <v>72</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="2">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2">
+        <v>24</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <v>69</v>
+      </c>
+      <c r="D54" s="2">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20</v>
+      </c>
+      <c r="F54" s="2">
+        <v>22</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="2">
+        <v>30</v>
+      </c>
+      <c r="I54" s="2">
+        <v>31</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C55" s="2">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2">
+        <v>30</v>
+      </c>
       <c r="E55" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="2">
+        <v>31</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H55" s="2">
+        <v>17</v>
+      </c>
+      <c r="I55" s="2">
+        <v>22</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="2">
+        <v>15</v>
+      </c>
+      <c r="D56" s="2">
+        <v>55</v>
+      </c>
+      <c r="E56" s="2">
+        <v>53</v>
+      </c>
+      <c r="F56" s="2">
+        <v>58</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="2">
+        <v>21</v>
+      </c>
+      <c r="I56" s="2">
+        <v>17</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="2">
+        <v>69</v>
+      </c>
+      <c r="D57" s="2">
+        <v>17</v>
+      </c>
+      <c r="E57" s="2">
+        <v>20</v>
+      </c>
+      <c r="F57" s="2">
+        <v>22</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="2">
+        <v>30</v>
+      </c>
+      <c r="I57" s="2">
+        <v>31</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>4</v>
+      </c>
+      <c r="L57" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2">
+        <v>30</v>
+      </c>
       <c r="E58" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="2">
+        <v>72</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58" s="2">
+        <v>54</v>
+      </c>
+      <c r="I58" s="2">
+        <v>58</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C59" s="2">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2">
+        <v>30</v>
+      </c>
       <c r="E59" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="2">
+        <v>31</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="2">
+        <v>17</v>
+      </c>
+      <c r="I59" s="2">
+        <v>22</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>17</v>
+      </c>
+      <c r="E60" s="2">
+        <v>21</v>
+      </c>
+      <c r="F60" s="2">
+        <v>22</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="2">
+        <v>30</v>
+      </c>
+      <c r="I60" s="2">
+        <v>31</v>
+      </c>
+      <c r="J60" s="2">
+        <v>2</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="2">
+        <v>69</v>
+      </c>
+      <c r="D61" s="2">
+        <v>17</v>
+      </c>
+      <c r="E61" s="2">
+        <v>20</v>
+      </c>
+      <c r="F61" s="2">
+        <v>22</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H61" s="2">
+        <v>66</v>
+      </c>
+      <c r="I61" s="2">
+        <v>50</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>4</v>
+      </c>
+      <c r="L61" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>17</v>
+      </c>
+      <c r="E62" s="2">
+        <v>21</v>
+      </c>
+      <c r="F62" s="2">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="2">
+        <v>55</v>
+      </c>
+      <c r="I62" s="2">
+        <v>53</v>
+      </c>
+      <c r="J62" s="2">
+        <v>2</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C63" s="2">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2">
+        <v>30</v>
+      </c>
       <c r="E63" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="2">
+        <v>72</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="2">
+        <v>17</v>
+      </c>
+      <c r="I63" s="2">
+        <v>22</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="L63" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="2">
+        <v>69</v>
+      </c>
+      <c r="D64" s="2">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2">
+        <v>20</v>
+      </c>
+      <c r="F64" s="2">
+        <v>22</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="2">
+        <v>29</v>
+      </c>
+      <c r="I64" s="2">
+        <v>31</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>4</v>
+      </c>
+      <c r="L64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="2">
+        <v>12</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45</v>
+      </c>
+      <c r="E65" s="2">
+        <v>48</v>
+      </c>
+      <c r="F65" s="2">
+        <v>49</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="2">
+        <v>17</v>
+      </c>
+      <c r="I65" s="2">
+        <v>20</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>4</v>
+      </c>
+      <c r="L65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C66" s="2">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2">
+        <v>30</v>
+      </c>
       <c r="E66" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="2">
+        <v>72</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="2">
+        <v>18</v>
+      </c>
+      <c r="I66" s="2">
+        <v>22</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>17</v>
+      </c>
+      <c r="E67" s="2">
+        <v>21</v>
+      </c>
+      <c r="F67" s="2">
+        <v>22</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H67" s="2">
+        <v>55</v>
+      </c>
+      <c r="I67" s="2">
+        <v>53</v>
+      </c>
+      <c r="J67" s="2">
+        <v>2</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="2">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2">
+        <v>35</v>
+      </c>
+      <c r="E68" s="2">
+        <v>37</v>
+      </c>
+      <c r="F68" s="2">
+        <v>40</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="2">
+        <v>18</v>
+      </c>
+      <c r="I68" s="2">
+        <v>22</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
+        <v>8</v>
+      </c>
+      <c r="D69" s="2">
+        <v>35</v>
+      </c>
+      <c r="E69" s="2">
+        <v>37</v>
+      </c>
+      <c r="F69" s="2">
+        <v>40</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="2">
+        <v>18</v>
+      </c>
+      <c r="I69" s="2">
+        <v>22</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="2">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2">
+        <v>44</v>
+      </c>
+      <c r="E70" s="2">
+        <v>48</v>
+      </c>
+      <c r="F70" s="2">
+        <v>49</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H70" s="2">
+        <v>17</v>
+      </c>
+      <c r="I70" s="2">
+        <v>20</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>4</v>
+      </c>
+      <c r="L70" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C71" s="2">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2">
+        <v>29</v>
+      </c>
       <c r="E71" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="2">
+        <v>72</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71" s="2">
+        <v>18</v>
+      </c>
+      <c r="I71" s="2">
+        <v>22</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C72" s="2">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2">
+        <v>29</v>
+      </c>
       <c r="E72" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="2">
+        <v>72</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72" s="2">
+        <v>18</v>
+      </c>
+      <c r="I72" s="2">
+        <v>22</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="2">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45</v>
+      </c>
+      <c r="E73" s="2">
+        <v>48</v>
+      </c>
+      <c r="F73" s="2">
+        <v>50</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H73" s="2">
+        <v>17</v>
+      </c>
+      <c r="I73" s="2">
+        <v>20</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>4</v>
+      </c>
+      <c r="L73" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="2">
+        <v>69</v>
+      </c>
+      <c r="D74" s="2">
+        <v>17</v>
+      </c>
+      <c r="E74" s="2">
+        <v>21</v>
+      </c>
+      <c r="F74" s="2">
+        <v>22</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H74" s="2">
+        <v>30</v>
+      </c>
+      <c r="I74" s="2">
+        <v>31</v>
+      </c>
+      <c r="J74" s="2">
+        <v>2</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="2">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2">
+        <v>17</v>
+      </c>
+      <c r="E75" s="2">
+        <v>19</v>
+      </c>
+      <c r="F75" s="2">
+        <v>22</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" s="2">
+        <v>55</v>
+      </c>
+      <c r="I75" s="2">
+        <v>53</v>
+      </c>
+      <c r="J75" s="2">
+        <v>2</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="C76" s="2">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2">
+        <v>35</v>
       </c>
       <c r="E76" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F76" s="2">
+        <v>40</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H76" s="2">
+        <v>18</v>
+      </c>
+      <c r="I76" s="2">
+        <v>22</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+      <c r="L76" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="2">
+        <v>69</v>
+      </c>
+      <c r="D77" s="2">
+        <v>17</v>
+      </c>
+      <c r="E77" s="2">
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <v>22</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" s="2">
+        <v>66</v>
+      </c>
+      <c r="I77" s="2">
+        <v>50</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2">
+        <v>4</v>
+      </c>
+      <c r="L77" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C78" s="2">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2">
+        <v>29</v>
+      </c>
       <c r="E78" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="2">
+        <v>72</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H78" s="2">
+        <v>18</v>
+      </c>
+      <c r="I78" s="2">
+        <v>22</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+      <c r="L78" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="2">
+        <v>7</v>
+      </c>
+      <c r="D79" s="2">
+        <v>35</v>
+      </c>
+      <c r="E79" s="2">
+        <v>37</v>
+      </c>
+      <c r="F79" s="2">
+        <v>40</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H79" s="2">
+        <v>18</v>
+      </c>
+      <c r="I79" s="2">
+        <v>22</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="2">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44</v>
+      </c>
+      <c r="E80" s="2">
+        <v>51</v>
+      </c>
+      <c r="F80" s="2">
+        <v>50</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H80" s="2">
+        <v>17</v>
+      </c>
+      <c r="I80" s="2">
+        <v>21</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+      <c r="L80" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="2">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2">
+        <v>73</v>
+      </c>
+      <c r="E81" s="2">
+        <v>48</v>
+      </c>
+      <c r="F81" s="2">
+        <v>50</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H81" s="2">
+        <v>17</v>
+      </c>
+      <c r="I81" s="2">
+        <v>20</v>
+      </c>
+      <c r="J81" s="2">
+        <v>3</v>
+      </c>
+      <c r="K81" s="2">
+        <v>4</v>
+      </c>
+      <c r="L81" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C82" s="2">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2">
+        <v>30</v>
+      </c>
       <c r="E82" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="2">
+        <v>72</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" s="2">
+        <v>18</v>
+      </c>
+      <c r="I82" s="2">
+        <v>22</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+      <c r="L82" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C83" s="2">
+        <v>6</v>
+      </c>
+      <c r="D83" s="2">
+        <v>29</v>
+      </c>
       <c r="E83" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="2">
+        <v>33</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H83" s="2">
+        <v>17</v>
+      </c>
+      <c r="I83" s="2">
+        <v>22</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+      <c r="L83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>162</v>
       </c>
@@ -2773,7 +5138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>80</v>
       </c>
@@ -2781,7 +5146,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>81</v>
       </c>
@@ -2789,7 +5154,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>82</v>
       </c>
@@ -2797,7 +5162,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>83</v>
       </c>
@@ -2805,7 +5170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>84</v>
       </c>
@@ -2813,7 +5178,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>85</v>
       </c>
@@ -2821,7 +5186,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>86</v>
       </c>
@@ -2829,7 +5194,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
@@ -2840,7 +5205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>88</v>
       </c>
@@ -2848,7 +5213,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>89</v>
       </c>
@@ -2856,7 +5221,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>90</v>
       </c>
@@ -2864,7 +5229,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>91</v>
       </c>
@@ -3384,9 +5749,14 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView topLeftCell="A10" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
+    <sheetView workbookViewId="4"/>
+    <sheetView tabSelected="1" workbookViewId="5"/>
+    <sheetView workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3454,6 +5824,11 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView tabSelected="1" workbookViewId="3"/>
+    <sheetView workbookViewId="4"/>
+    <sheetView workbookViewId="5"/>
+    <sheetView workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3524,6 +5899,11 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
+    <sheetView workbookViewId="4"/>
+    <sheetView workbookViewId="5"/>
+    <sheetView tabSelected="1" workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3584,10 +5964,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FBB1D2-6153-4D6B-B80D-AC9021E504A0}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
+    <sheetView workbookViewId="4"/>
+    <sheetView workbookViewId="5"/>
+    <sheetView workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3652,6 +6037,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
+    <sheetView tabSelected="1" workbookViewId="4"/>
+    <sheetView workbookViewId="5"/>
+    <sheetView workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3716,6 +6106,13 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="2">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+    <sheetView workbookViewId="3"/>
+    <sheetView workbookViewId="4"/>
+    <sheetView workbookViewId="5"/>
+    <sheetView workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3746,13 +6143,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Champion-Runes.xlsx
+++ b/Champion-Runes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duc\Desktop\IRL Useful\ARAM Runes Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878563CF-CC14-462D-8D76-B50B42833F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0D3D3-8B28-480C-8CBA-374ACA357A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20115" yWindow="345" windowWidth="3960" windowHeight="8685" tabRatio="646" firstSheet="4" activeTab="4" xr2:uid="{05130611-41D6-43C8-B73A-9762CE92870A}"/>
-    <workbookView xWindow="-24540" yWindow="2085" windowWidth="28800" windowHeight="7830" xr2:uid="{0F249C26-87E6-4EFF-B5DE-0EE0792CAA0B}"/>
-    <workbookView xWindow="24420" yWindow="8175" windowWidth="3480" windowHeight="7830" firstSheet="6" activeTab="6" xr2:uid="{B0B8A4CF-9A6F-48B0-AD68-9ED65BEAE22B}"/>
-    <workbookView xWindow="24210" yWindow="525" windowWidth="4455" windowHeight="8670" firstSheet="2" activeTab="2" xr2:uid="{FF81866E-A5AA-4548-837C-48FE481E8A96}"/>
-    <workbookView xWindow="15855" yWindow="360" windowWidth="3735" windowHeight="7830" firstSheet="5" activeTab="5" xr2:uid="{3EC68EC8-DD93-4836-B4ED-D69B4814133D}"/>
-    <workbookView xWindow="16050" yWindow="7665" windowWidth="4395" windowHeight="8670" firstSheet="1" activeTab="1" xr2:uid="{E34CFB41-02AE-4BB4-960D-A9D095459DFB}"/>
-    <workbookView xWindow="20685" yWindow="8070" windowWidth="3675" windowHeight="7830" activeTab="3" xr2:uid="{01F08989-AD10-4245-9BC1-75968EBDD16D}"/>
+    <workbookView xWindow="20775" yWindow="30" windowWidth="3690" windowHeight="8370" tabRatio="646" firstSheet="4" activeTab="4" xr2:uid="{05130611-41D6-43C8-B73A-9762CE92870A}"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="9600" windowHeight="7800" xr2:uid="{0F249C26-87E6-4EFF-B5DE-0EE0792CAA0B}"/>
+    <workbookView xWindow="17130" yWindow="7785" windowWidth="3300" windowHeight="6435" firstSheet="6" activeTab="6" xr2:uid="{B0B8A4CF-9A6F-48B0-AD68-9ED65BEAE22B}"/>
+    <workbookView xWindow="24435" yWindow="30" windowWidth="4410" windowHeight="8205" firstSheet="2" activeTab="2" xr2:uid="{FF81866E-A5AA-4548-837C-48FE481E8A96}"/>
+    <workbookView xWindow="25065" yWindow="7515" windowWidth="3705" windowHeight="8220" firstSheet="5" activeTab="5" xr2:uid="{3EC68EC8-DD93-4836-B4ED-D69B4814133D}"/>
+    <workbookView xWindow="20610" yWindow="7620" windowWidth="4350" windowHeight="8175" firstSheet="1" activeTab="1" xr2:uid="{E34CFB41-02AE-4BB4-960D-A9D095459DFB}"/>
+    <workbookView xWindow="17055" yWindow="30" windowWidth="3690" windowHeight="8055" activeTab="3" xr2:uid="{01F08989-AD10-4245-9BC1-75968EBDD16D}"/>
   </bookViews>
   <sheets>
     <sheet name="Champion Runes" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Stats" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="166">
   <si>
     <t>Keystone</t>
   </si>
@@ -513,34 +514,34 @@
     <t>Inspiration</t>
   </si>
   <si>
-    <t>Kai'Sa (AP)</t>
-  </si>
-  <si>
-    <t>Kai'Sa (AD)</t>
-  </si>
-  <si>
-    <t>Malphite (AP)</t>
-  </si>
-  <si>
-    <t>Malphite (TANK)</t>
-  </si>
-  <si>
-    <t>Miss Fortune (AP)</t>
-  </si>
-  <si>
-    <t>Miss Fortune (AD)</t>
-  </si>
-  <si>
     <t>Nocturne</t>
   </si>
   <si>
-    <t>Varus (POKE)</t>
-  </si>
-  <si>
-    <t>Varus (ONHIT)</t>
-  </si>
-  <si>
     <t>Champion Name</t>
+  </si>
+  <si>
+    <t>Varus ONHIT</t>
+  </si>
+  <si>
+    <t>Varus POKE</t>
+  </si>
+  <si>
+    <t>Miss Fortune AP</t>
+  </si>
+  <si>
+    <t>Miss Fortune AD</t>
+  </si>
+  <si>
+    <t>Malphite AP</t>
+  </si>
+  <si>
+    <t>Malphite TANK</t>
+  </si>
+  <si>
+    <t>Kai'Sa AP</t>
+  </si>
+  <si>
+    <t>Kai'Sa AD</t>
   </si>
 </sst>
 </file>
@@ -1953,8 +1954,8 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="1">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
     <sheetView workbookViewId="2"/>
     <sheetView workbookViewId="3"/>
@@ -1975,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>145</v>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>144</v>
@@ -3837,7 +3838,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>146</v>
@@ -4597,7 +4598,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>147</v>
@@ -4635,7 +4636,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>146</v>
@@ -5129,13 +5130,40 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C84" s="2">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2">
+        <v>29</v>
+      </c>
       <c r="E84" s="2">
         <v>27</v>
+      </c>
+      <c r="F84" s="2">
+        <v>31</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" s="2">
+        <v>17</v>
+      </c>
+      <c r="I84" s="2">
+        <v>22</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+      <c r="L84" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5145,6 +5173,36 @@
       <c r="B85" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C85" s="2">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45</v>
+      </c>
+      <c r="E85" s="2">
+        <v>48</v>
+      </c>
+      <c r="F85" s="2">
+        <v>49</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H85" s="2">
+        <v>17</v>
+      </c>
+      <c r="I85" s="2">
+        <v>20</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2">
+        <v>4</v>
+      </c>
+      <c r="L85" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -5153,6 +5211,36 @@
       <c r="B86" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C86" s="2">
+        <v>69</v>
+      </c>
+      <c r="D86" s="2">
+        <v>17</v>
+      </c>
+      <c r="E86" s="2">
+        <v>21</v>
+      </c>
+      <c r="F86" s="2">
+        <v>24</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H86" s="2">
+        <v>50</v>
+      </c>
+      <c r="I86" s="2">
+        <v>51</v>
+      </c>
+      <c r="J86" s="2">
+        <v>2</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+      <c r="L86" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -5161,6 +5249,36 @@
       <c r="B87" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C87" s="2">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2">
+        <v>35</v>
+      </c>
+      <c r="E87" s="2">
+        <v>37</v>
+      </c>
+      <c r="F87" s="2">
+        <v>40</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H87" s="2">
+        <v>18</v>
+      </c>
+      <c r="I87" s="2">
+        <v>22</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+      <c r="L87" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -5169,6 +5287,36 @@
       <c r="B88" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C88" s="2">
+        <v>10</v>
+      </c>
+      <c r="D88" s="2">
+        <v>73</v>
+      </c>
+      <c r="E88" s="2">
+        <v>48</v>
+      </c>
+      <c r="F88" s="2">
+        <v>49</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H88" s="2">
+        <v>17</v>
+      </c>
+      <c r="I88" s="2">
+        <v>20</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="2">
+        <v>4</v>
+      </c>
+      <c r="L88" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
@@ -5177,6 +5325,36 @@
       <c r="B89" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C89" s="2">
+        <v>69</v>
+      </c>
+      <c r="D89" s="2">
+        <v>17</v>
+      </c>
+      <c r="E89" s="2">
+        <v>20</v>
+      </c>
+      <c r="F89" s="2">
+        <v>22</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H89" s="2">
+        <v>50</v>
+      </c>
+      <c r="I89" s="2">
+        <v>66</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2">
+        <v>4</v>
+      </c>
+      <c r="L89" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -5185,6 +5363,36 @@
       <c r="B90" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C90" s="2">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45</v>
+      </c>
+      <c r="E90" s="2">
+        <v>48</v>
+      </c>
+      <c r="F90" s="2">
+        <v>49</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H90" s="2">
+        <v>17</v>
+      </c>
+      <c r="I90" s="2">
+        <v>20</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2">
+        <v>4</v>
+      </c>
+      <c r="L90" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
@@ -5193,6 +5401,36 @@
       <c r="B91" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C91" s="2">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45</v>
+      </c>
+      <c r="E91" s="2">
+        <v>66</v>
+      </c>
+      <c r="F91" s="2">
+        <v>50</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H91" s="2">
+        <v>30</v>
+      </c>
+      <c r="I91" s="2">
+        <v>72</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2">
+        <v>4</v>
+      </c>
+      <c r="L91" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
@@ -5201,8 +5439,35 @@
       <c r="B92" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C92" s="2">
+        <v>6</v>
+      </c>
+      <c r="D92" s="2">
+        <v>30</v>
+      </c>
       <c r="E92" s="2">
         <v>27</v>
+      </c>
+      <c r="F92" s="2">
+        <v>31</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H92" s="2">
+        <v>17</v>
+      </c>
+      <c r="I92" s="2">
+        <v>22</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -5212,6 +5477,36 @@
       <c r="B93" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2">
+        <v>17</v>
+      </c>
+      <c r="E93" s="2">
+        <v>21</v>
+      </c>
+      <c r="F93" s="2">
+        <v>22</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H93" s="2">
+        <v>29</v>
+      </c>
+      <c r="I93" s="2">
+        <v>27</v>
+      </c>
+      <c r="J93" s="2">
+        <v>2</v>
+      </c>
+      <c r="K93" s="2">
+        <v>1</v>
+      </c>
+      <c r="L93" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -5220,6 +5515,36 @@
       <c r="B94" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C94" s="2">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45</v>
+      </c>
+      <c r="E94" s="2">
+        <v>66</v>
+      </c>
+      <c r="F94" s="2">
+        <v>50</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H94" s="2">
+        <v>70</v>
+      </c>
+      <c r="I94" s="2">
+        <v>38</v>
+      </c>
+      <c r="J94" s="2">
+        <v>3</v>
+      </c>
+      <c r="K94" s="2">
+        <v>4</v>
+      </c>
+      <c r="L94" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -5228,6 +5553,36 @@
       <c r="B95" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C95" s="2">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2">
+        <v>44</v>
+      </c>
+      <c r="E95" s="2">
+        <v>48</v>
+      </c>
+      <c r="F95" s="2">
+        <v>49</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H95" s="2">
+        <v>17</v>
+      </c>
+      <c r="I95" s="2">
+        <v>20</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2">
+        <v>4</v>
+      </c>
+      <c r="L95" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -5236,506 +5591,2087 @@
       <c r="B96" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C96" s="2">
+        <v>71</v>
+      </c>
+      <c r="D96" s="2">
+        <v>28</v>
+      </c>
       <c r="E96" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="2">
+        <v>31</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H96" s="2">
+        <v>17</v>
+      </c>
+      <c r="I96" s="2">
+        <v>22</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="2">
+        <v>69</v>
+      </c>
+      <c r="D97" s="2">
+        <v>17</v>
+      </c>
+      <c r="E97" s="2">
+        <v>20</v>
+      </c>
+      <c r="F97" s="2">
+        <v>22</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H97" s="2">
+        <v>31</v>
+      </c>
+      <c r="I97" s="2">
+        <v>30</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C98" s="2">
+        <v>6</v>
+      </c>
+      <c r="D98" s="2">
+        <v>30</v>
+      </c>
       <c r="E98" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="2">
+        <v>31</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H98" s="2">
+        <v>17</v>
+      </c>
+      <c r="I98" s="2">
+        <v>22</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1</v>
+      </c>
+      <c r="L98" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="2">
+        <v>69</v>
+      </c>
+      <c r="D99" s="2">
+        <v>17</v>
+      </c>
+      <c r="E99" s="2">
+        <v>20</v>
+      </c>
+      <c r="F99" s="2">
+        <v>22</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H99" s="2">
+        <v>31</v>
+      </c>
+      <c r="I99" s="2">
+        <v>30</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2">
+        <v>4</v>
+      </c>
+      <c r="L99" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C100" s="2">
+        <v>6</v>
+      </c>
+      <c r="D100" s="2">
+        <v>29</v>
+      </c>
       <c r="E100" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="2">
+        <v>72</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H100" s="2">
+        <v>18</v>
+      </c>
+      <c r="I100" s="2">
+        <v>22</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1</v>
+      </c>
+      <c r="L100" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="2">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2">
+        <v>35</v>
+      </c>
+      <c r="E101" s="2">
+        <v>37</v>
+      </c>
+      <c r="F101" s="2">
+        <v>40</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H101" s="2">
+        <v>18</v>
+      </c>
+      <c r="I101" s="2">
+        <v>22</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2">
+        <v>1</v>
+      </c>
+      <c r="L101" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="2">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45</v>
+      </c>
+      <c r="E102" s="2">
+        <v>48</v>
+      </c>
+      <c r="F102" s="2">
+        <v>49</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H102" s="2">
+        <v>17</v>
+      </c>
+      <c r="I102" s="2">
+        <v>20</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2">
+        <v>4</v>
+      </c>
+      <c r="L102" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C103" s="2">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2">
+        <v>30</v>
+      </c>
       <c r="E103" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="2">
+        <v>72</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H103" s="2">
+        <v>17</v>
+      </c>
+      <c r="I103" s="2">
+        <v>22</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1</v>
+      </c>
+      <c r="L103" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="2">
+        <v>10</v>
+      </c>
+      <c r="D104" s="2">
+        <v>73</v>
+      </c>
+      <c r="E104" s="2">
+        <v>48</v>
+      </c>
+      <c r="F104" s="2">
+        <v>49</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H104" s="2">
+        <v>17</v>
+      </c>
+      <c r="I104" s="2">
+        <v>20</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2">
+        <v>4</v>
+      </c>
+      <c r="L104" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C105" s="2">
+        <v>6</v>
+      </c>
+      <c r="D105" s="2">
+        <v>30</v>
+      </c>
       <c r="E105" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="2">
+        <v>33</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H105" s="2">
+        <v>17</v>
+      </c>
+      <c r="I105" s="2">
+        <v>22</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2">
+        <v>1</v>
+      </c>
+      <c r="L105" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="2">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45</v>
+      </c>
+      <c r="E106" s="2">
+        <v>51</v>
+      </c>
+      <c r="F106" s="2">
+        <v>50</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H106" s="2">
+        <v>70</v>
+      </c>
+      <c r="I106" s="2">
+        <v>38</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2">
+        <v>4</v>
+      </c>
+      <c r="L106" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="2">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2">
+        <v>44</v>
+      </c>
+      <c r="E107" s="2">
+        <v>48</v>
+      </c>
+      <c r="F107" s="2">
+        <v>49</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H107" s="2">
+        <v>17</v>
+      </c>
+      <c r="I107" s="2">
+        <v>20</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>4</v>
+      </c>
+      <c r="L107" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2">
+        <v>17</v>
+      </c>
+      <c r="E108" s="2">
+        <v>21</v>
+      </c>
+      <c r="F108" s="2">
+        <v>22</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H108" s="2">
+        <v>55</v>
+      </c>
+      <c r="I108" s="2">
+        <v>53</v>
+      </c>
+      <c r="J108" s="2">
+        <v>2</v>
+      </c>
+      <c r="K108" s="2">
+        <v>1</v>
+      </c>
+      <c r="L108" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="2">
+        <v>69</v>
+      </c>
+      <c r="D109" s="2">
+        <v>17</v>
+      </c>
+      <c r="E109" s="2">
+        <v>20</v>
+      </c>
+      <c r="F109" s="2">
+        <v>22</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H109" s="2">
+        <v>66</v>
+      </c>
+      <c r="I109" s="2">
+        <v>50</v>
+      </c>
+      <c r="J109" s="2">
+        <v>2</v>
+      </c>
+      <c r="K109" s="2">
+        <v>4</v>
+      </c>
+      <c r="L109" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="2">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2">
+        <v>35</v>
+      </c>
+      <c r="E110" s="2">
+        <v>37</v>
+      </c>
+      <c r="F110" s="2">
+        <v>40</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H110" s="2">
+        <v>18</v>
+      </c>
+      <c r="I110" s="2">
+        <v>22</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2">
+        <v>1</v>
+      </c>
+      <c r="L110" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="2">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2">
+        <v>35</v>
+      </c>
+      <c r="E111" s="2">
+        <v>37</v>
+      </c>
+      <c r="F111" s="2">
+        <v>40</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H111" s="2">
+        <v>18</v>
+      </c>
+      <c r="I111" s="2">
+        <v>22</v>
+      </c>
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2">
+        <v>1</v>
+      </c>
+      <c r="L111" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C112" s="2">
+        <v>4</v>
+      </c>
+      <c r="D112" s="2">
+        <v>28</v>
+      </c>
       <c r="E112" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="2">
+        <v>31</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H112" s="2">
+        <v>17</v>
+      </c>
+      <c r="I112" s="2">
+        <v>22</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
+        <v>4</v>
+      </c>
+      <c r="L112" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C113" s="2">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2">
+        <v>73</v>
+      </c>
+      <c r="E113" s="2">
+        <v>66</v>
+      </c>
+      <c r="F113" s="2">
+        <v>50</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H113" s="2">
+        <v>30</v>
+      </c>
+      <c r="I113" s="2">
+        <v>31</v>
+      </c>
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2">
+        <v>1</v>
+      </c>
+      <c r="L113" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C114" s="2">
+        <v>6</v>
+      </c>
+      <c r="D114" s="2">
+        <v>28</v>
+      </c>
       <c r="E114" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="2">
+        <v>72</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H114" s="2">
+        <v>17</v>
+      </c>
+      <c r="I114" s="2">
+        <v>22</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2">
+        <v>1</v>
+      </c>
+      <c r="L114" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C115" s="2">
+        <v>10</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45</v>
+      </c>
+      <c r="E115" s="2">
+        <v>48</v>
+      </c>
+      <c r="F115" s="2">
+        <v>49</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H115" s="2">
+        <v>17</v>
+      </c>
+      <c r="I115" s="2">
+        <v>20</v>
+      </c>
+      <c r="J115" s="2">
+        <v>2</v>
+      </c>
+      <c r="K115" s="2">
+        <v>4</v>
+      </c>
+      <c r="L115" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C116" s="2">
+        <v>6</v>
+      </c>
+      <c r="D116" s="2">
+        <v>28</v>
+      </c>
       <c r="E116" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="2">
+        <v>31</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H116" s="2">
+        <v>17</v>
+      </c>
+      <c r="I116" s="2">
+        <v>22</v>
+      </c>
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2">
+        <v>1</v>
+      </c>
+      <c r="L116" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C117" s="2">
+        <v>6</v>
+      </c>
+      <c r="D117" s="2">
+        <v>30</v>
+      </c>
       <c r="E117" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="2">
+        <v>31</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H117" s="2">
+        <v>17</v>
+      </c>
+      <c r="I117" s="2">
+        <v>22</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2">
+        <v>1</v>
+      </c>
+      <c r="L117" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C118" s="2">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45</v>
+      </c>
+      <c r="E118" s="2">
+        <v>48</v>
+      </c>
+      <c r="F118" s="2">
+        <v>50</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H118" s="2">
+        <v>18</v>
+      </c>
+      <c r="I118" s="2">
+        <v>20</v>
+      </c>
+      <c r="J118" s="2">
+        <v>3</v>
+      </c>
+      <c r="K118" s="2">
+        <v>4</v>
+      </c>
+      <c r="L118" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C119" s="2">
+        <v>6</v>
+      </c>
+      <c r="D119" s="2">
+        <v>29</v>
+      </c>
       <c r="E119" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="2">
+        <v>31</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H119" s="2">
+        <v>17</v>
+      </c>
+      <c r="I119" s="2">
+        <v>22</v>
+      </c>
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1</v>
+      </c>
+      <c r="L119" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="2">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2">
+        <v>45</v>
+      </c>
+      <c r="E120" s="2">
+        <v>48</v>
+      </c>
+      <c r="F120" s="2">
+        <v>49</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H120" s="2">
+        <v>17</v>
+      </c>
+      <c r="I120" s="2">
+        <v>20</v>
+      </c>
+      <c r="J120" s="2">
+        <v>3</v>
+      </c>
+      <c r="K120" s="2">
+        <v>4</v>
+      </c>
+      <c r="L120" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D121" s="2">
+        <v>17</v>
+      </c>
+      <c r="E121" s="2">
+        <v>21</v>
+      </c>
+      <c r="F121" s="2">
+        <v>22</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H121" s="2">
+        <v>55</v>
+      </c>
+      <c r="I121" s="2">
+        <v>53</v>
+      </c>
+      <c r="J121" s="2">
+        <v>2</v>
+      </c>
+      <c r="K121" s="2">
+        <v>1</v>
+      </c>
+      <c r="L121" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="2">
+        <v>10</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45</v>
+      </c>
+      <c r="E122" s="2">
+        <v>48</v>
+      </c>
+      <c r="F122" s="2">
+        <v>50</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H122" s="2">
+        <v>17</v>
+      </c>
+      <c r="I122" s="2">
+        <v>20</v>
+      </c>
+      <c r="J122" s="2">
+        <v>2</v>
+      </c>
+      <c r="K122" s="2">
+        <v>4</v>
+      </c>
+      <c r="L122" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C123" s="2">
+        <v>2</v>
+      </c>
+      <c r="D123" s="2">
+        <v>17</v>
+      </c>
+      <c r="E123" s="2">
+        <v>21</v>
+      </c>
+      <c r="F123" s="2">
+        <v>24</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H123" s="2">
+        <v>30</v>
+      </c>
+      <c r="I123" s="2">
+        <v>31</v>
+      </c>
+      <c r="J123" s="2">
+        <v>2</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1</v>
+      </c>
+      <c r="L123" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C124" s="2">
+        <v>6</v>
+      </c>
+      <c r="D124" s="2">
+        <v>28</v>
+      </c>
       <c r="E124" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="2">
+        <v>31</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H124" s="2">
+        <v>18</v>
+      </c>
+      <c r="I124" s="2">
+        <v>22</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1</v>
+      </c>
+      <c r="L124" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C125" s="2">
+        <v>2</v>
+      </c>
+      <c r="D125" s="2">
+        <v>17</v>
+      </c>
+      <c r="E125" s="2">
+        <v>21</v>
+      </c>
+      <c r="F125" s="2">
+        <v>22</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H125" s="2">
+        <v>30</v>
+      </c>
+      <c r="I125" s="2">
+        <v>72</v>
+      </c>
+      <c r="J125" s="2">
+        <v>2</v>
+      </c>
+      <c r="K125" s="2">
+        <v>1</v>
+      </c>
+      <c r="L125" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C126" s="2">
+        <v>69</v>
+      </c>
+      <c r="D126" s="2">
+        <v>17</v>
+      </c>
+      <c r="E126" s="2">
+        <v>20</v>
+      </c>
+      <c r="F126" s="2">
+        <v>22</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H126" s="2">
+        <v>50</v>
+      </c>
+      <c r="I126" s="2">
+        <v>66</v>
+      </c>
+      <c r="J126" s="2">
+        <v>2</v>
+      </c>
+      <c r="K126" s="2">
+        <v>4</v>
+      </c>
+      <c r="L126" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C127" s="2">
+        <v>69</v>
+      </c>
+      <c r="D127" s="2">
+        <v>17</v>
+      </c>
+      <c r="E127" s="2">
+        <v>20</v>
+      </c>
+      <c r="F127" s="2">
+        <v>24</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H127" s="2">
+        <v>50</v>
+      </c>
+      <c r="I127" s="2">
+        <v>66</v>
+      </c>
+      <c r="J127" s="2">
+        <v>1</v>
+      </c>
+      <c r="K127" s="2">
+        <v>4</v>
+      </c>
+      <c r="L127" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C128" s="2">
+        <v>2</v>
+      </c>
+      <c r="D128" s="2">
+        <v>17</v>
+      </c>
+      <c r="E128" s="2">
+        <v>21</v>
+      </c>
+      <c r="F128" s="2">
+        <v>22</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H128" s="2">
+        <v>55</v>
+      </c>
+      <c r="I128" s="2">
+        <v>53</v>
+      </c>
+      <c r="J128" s="2">
+        <v>2</v>
+      </c>
+      <c r="K128" s="2">
+        <v>1</v>
+      </c>
+      <c r="L128" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C129" s="2">
+        <v>6</v>
+      </c>
+      <c r="D129" s="2">
+        <v>29</v>
+      </c>
       <c r="E129" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="2">
+        <v>31</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H129" s="2">
+        <v>17</v>
+      </c>
+      <c r="I129" s="2">
+        <v>22</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1</v>
+      </c>
+      <c r="K129" s="2">
+        <v>1</v>
+      </c>
+      <c r="L129" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C130" s="2">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2">
+        <v>17</v>
+      </c>
+      <c r="E130" s="2">
+        <v>19</v>
+      </c>
+      <c r="F130" s="2">
+        <v>22</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H130" s="2">
+        <v>55</v>
+      </c>
+      <c r="I130" s="2">
+        <v>53</v>
+      </c>
+      <c r="J130" s="2">
+        <v>2</v>
+      </c>
+      <c r="K130" s="2">
+        <v>1</v>
+      </c>
+      <c r="L130" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C131" s="2">
+        <v>6</v>
+      </c>
+      <c r="D131" s="2">
+        <v>28</v>
+      </c>
       <c r="E131" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="2">
+        <v>72</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H131" s="2">
+        <v>18</v>
+      </c>
+      <c r="I131" s="2">
+        <v>22</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1</v>
+      </c>
+      <c r="K131" s="2">
+        <v>1</v>
+      </c>
+      <c r="L131" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C132" s="2">
+        <v>6</v>
+      </c>
+      <c r="D132" s="2">
+        <v>28</v>
+      </c>
       <c r="E132" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="2">
+        <v>72</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H132" s="2">
+        <v>18</v>
+      </c>
+      <c r="I132" s="2">
+        <v>22</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2">
+        <v>1</v>
+      </c>
+      <c r="L132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C133" s="2">
+        <v>71</v>
+      </c>
+      <c r="D133" s="2">
+        <v>30</v>
+      </c>
       <c r="E133" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="2">
+        <v>72</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H133" s="2">
+        <v>17</v>
+      </c>
+      <c r="I133" s="2">
+        <v>22</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
+      <c r="L133" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C134" s="2">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2">
+        <v>29</v>
+      </c>
       <c r="E134" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="2">
+        <v>31</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H134" s="2">
+        <v>18</v>
+      </c>
+      <c r="I134" s="2">
+        <v>22</v>
+      </c>
+      <c r="J134" s="2">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2">
+        <v>1</v>
+      </c>
+      <c r="L134" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C135" s="2">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2">
+        <v>70</v>
+      </c>
+      <c r="E135" s="2">
+        <v>38</v>
+      </c>
+      <c r="F135" s="2">
+        <v>40</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H135" s="2">
+        <v>17</v>
+      </c>
+      <c r="I135" s="2">
+        <v>22</v>
+      </c>
+      <c r="J135" s="2">
+        <v>1</v>
+      </c>
+      <c r="K135" s="2">
+        <v>1</v>
+      </c>
+      <c r="L135" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C136" s="2">
+        <v>10</v>
+      </c>
+      <c r="D136" s="2">
+        <v>45</v>
+      </c>
+      <c r="E136" s="2">
+        <v>48</v>
+      </c>
+      <c r="F136" s="2">
+        <v>49</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H136" s="2">
+        <v>17</v>
+      </c>
+      <c r="I136" s="2">
+        <v>20</v>
+      </c>
+      <c r="J136" s="2">
+        <v>2</v>
+      </c>
+      <c r="K136" s="2">
+        <v>4</v>
+      </c>
+      <c r="L136" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C137" s="2">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45</v>
+      </c>
+      <c r="E137" s="2">
+        <v>48</v>
+      </c>
+      <c r="F137" s="2">
+        <v>49</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H137" s="2">
+        <v>17</v>
+      </c>
+      <c r="I137" s="2">
+        <v>20</v>
+      </c>
+      <c r="J137" s="2">
+        <v>2</v>
+      </c>
+      <c r="K137" s="2">
+        <v>4</v>
+      </c>
+      <c r="L137" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C138" s="2">
+        <v>6</v>
+      </c>
+      <c r="D138" s="2">
+        <v>30</v>
+      </c>
       <c r="E138" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="2">
+        <v>72</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H138" s="2">
+        <v>17</v>
+      </c>
+      <c r="I138" s="2">
+        <v>22</v>
+      </c>
+      <c r="J138" s="2">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2">
+        <v>1</v>
+      </c>
+      <c r="L138" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C139" s="2">
+        <v>2</v>
+      </c>
+      <c r="D139" s="2">
+        <v>17</v>
+      </c>
+      <c r="E139" s="2">
+        <v>21</v>
+      </c>
+      <c r="F139" s="2">
+        <v>22</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H139" s="2">
+        <v>55</v>
+      </c>
+      <c r="I139" s="2">
+        <v>53</v>
+      </c>
+      <c r="J139" s="2">
+        <v>2</v>
+      </c>
+      <c r="K139" s="2">
+        <v>1</v>
+      </c>
+      <c r="L139" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C140" s="2">
+        <v>6</v>
+      </c>
+      <c r="D140" s="2">
+        <v>29</v>
+      </c>
       <c r="E140" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="2">
+        <v>72</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H140" s="2">
+        <v>17</v>
+      </c>
+      <c r="I140" s="2">
+        <v>22</v>
+      </c>
+      <c r="J140" s="2">
+        <v>1</v>
+      </c>
+      <c r="K140" s="2">
+        <v>1</v>
+      </c>
+      <c r="L140" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C141" s="2">
+        <v>69</v>
+      </c>
+      <c r="D141" s="2">
+        <v>17</v>
+      </c>
+      <c r="E141" s="2">
+        <v>20</v>
+      </c>
+      <c r="F141" s="2">
+        <v>22</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H141" s="2">
+        <v>50</v>
+      </c>
+      <c r="I141" s="2">
+        <v>66</v>
+      </c>
+      <c r="J141" s="2">
+        <v>2</v>
+      </c>
+      <c r="K141" s="2">
+        <v>1</v>
+      </c>
+      <c r="L141" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C142" s="2">
+        <v>69</v>
+      </c>
+      <c r="D142" s="2">
+        <v>17</v>
+      </c>
+      <c r="E142" s="2">
+        <v>19</v>
+      </c>
+      <c r="F142" s="2">
+        <v>22</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H142" s="2">
+        <v>30</v>
+      </c>
+      <c r="I142" s="2">
+        <v>31</v>
+      </c>
+      <c r="J142" s="2">
+        <v>2</v>
+      </c>
+      <c r="K142" s="2">
+        <v>1</v>
+      </c>
+      <c r="L142" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C143" s="2">
+        <v>10</v>
+      </c>
+      <c r="D143" s="2">
+        <v>44</v>
+      </c>
+      <c r="E143" s="2">
+        <v>66</v>
+      </c>
+      <c r="F143" s="2">
+        <v>49</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H143" s="2">
+        <v>17</v>
+      </c>
+      <c r="I143" s="2">
+        <v>20</v>
+      </c>
+      <c r="J143" s="2">
+        <v>2</v>
+      </c>
+      <c r="K143" s="2">
+        <v>4</v>
+      </c>
+      <c r="L143" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C144" s="2">
+        <v>7</v>
+      </c>
+      <c r="D144" s="2">
+        <v>35</v>
+      </c>
+      <c r="E144" s="2">
+        <v>37</v>
+      </c>
+      <c r="F144" s="2">
+        <v>40</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H144" s="2">
+        <v>18</v>
+      </c>
+      <c r="I144" s="2">
+        <v>22</v>
+      </c>
+      <c r="J144" s="2">
+        <v>1</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1</v>
+      </c>
+      <c r="L144" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C145" s="2">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2">
+        <v>45</v>
+      </c>
+      <c r="E145" s="2">
+        <v>48</v>
+      </c>
+      <c r="F145" s="2">
+        <v>49</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H145" s="2">
+        <v>17</v>
+      </c>
+      <c r="I145" s="2">
+        <v>20</v>
+      </c>
+      <c r="J145" s="2">
+        <v>1</v>
+      </c>
+      <c r="K145" s="2">
+        <v>4</v>
+      </c>
+      <c r="L145" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C146" s="2">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2">
+        <v>30</v>
+      </c>
       <c r="E146" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="2">
+        <v>31</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H146" s="2">
+        <v>17</v>
+      </c>
+      <c r="I146" s="2">
+        <v>22</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1</v>
+      </c>
+      <c r="K146" s="2">
+        <v>1</v>
+      </c>
+      <c r="L146" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C147" s="2">
+        <v>6</v>
+      </c>
+      <c r="D147" s="2">
+        <v>29</v>
+      </c>
       <c r="E147" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="2">
+        <v>72</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H147" s="2">
+        <v>18</v>
+      </c>
+      <c r="I147" s="2">
+        <v>22</v>
+      </c>
+      <c r="J147" s="2">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1</v>
+      </c>
+      <c r="L147" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C148" s="2">
+        <v>4</v>
+      </c>
+      <c r="D148" s="2">
+        <v>29</v>
+      </c>
       <c r="E148" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="2">
+        <v>72</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H148" s="2">
+        <v>18</v>
+      </c>
+      <c r="I148" s="2">
+        <v>22</v>
+      </c>
+      <c r="J148" s="2">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2">
+        <v>1</v>
+      </c>
+      <c r="L148" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C149" s="2">
+        <v>6</v>
+      </c>
+      <c r="D149" s="2">
+        <v>30</v>
+      </c>
       <c r="E149" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="2">
+        <v>33</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H149" s="2">
+        <v>17</v>
+      </c>
+      <c r="I149" s="2">
+        <v>22</v>
+      </c>
+      <c r="J149" s="2">
+        <v>1</v>
+      </c>
+      <c r="K149" s="2">
+        <v>1</v>
+      </c>
+      <c r="L149" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C150" s="2">
+        <v>6</v>
+      </c>
+      <c r="D150" s="2">
+        <v>29</v>
+      </c>
       <c r="E150" s="2">
         <v>27</v>
+      </c>
+      <c r="F150" s="2">
+        <v>72</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H150" s="2">
+        <v>18</v>
+      </c>
+      <c r="I150" s="2">
+        <v>22</v>
+      </c>
+      <c r="J150" s="2">
+        <v>1</v>
+      </c>
+      <c r="K150" s="2">
+        <v>1</v>
+      </c>
+      <c r="L150" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Champion-Runes.xlsx
+++ b/Champion-Runes.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duc\Desktop\IRL Useful\ARAM Runes Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0D3D3-8B28-480C-8CBA-374ACA357A73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2B86D-F320-4DF6-B79D-7EC1071C4C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20775" yWindow="30" windowWidth="3690" windowHeight="8370" tabRatio="646" firstSheet="4" activeTab="4" xr2:uid="{05130611-41D6-43C8-B73A-9762CE92870A}"/>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="9600" windowHeight="7800" xr2:uid="{0F249C26-87E6-4EFF-B5DE-0EE0792CAA0B}"/>
     <workbookView xWindow="17130" yWindow="7785" windowWidth="3300" windowHeight="6435" firstSheet="6" activeTab="6" xr2:uid="{B0B8A4CF-9A6F-48B0-AD68-9ED65BEAE22B}"/>
     <workbookView xWindow="24435" yWindow="30" windowWidth="4410" windowHeight="8205" firstSheet="2" activeTab="2" xr2:uid="{FF81866E-A5AA-4548-837C-48FE481E8A96}"/>
     <workbookView xWindow="25065" yWindow="7515" windowWidth="3705" windowHeight="8220" firstSheet="5" activeTab="5" xr2:uid="{3EC68EC8-DD93-4836-B4ED-D69B4814133D}"/>
-    <workbookView xWindow="20610" yWindow="7620" windowWidth="4350" windowHeight="8175" firstSheet="1" activeTab="1" xr2:uid="{E34CFB41-02AE-4BB4-960D-A9D095459DFB}"/>
+    <workbookView xWindow="17580" yWindow="4035" windowWidth="4305" windowHeight="8385" firstSheet="1" activeTab="1" xr2:uid="{E34CFB41-02AE-4BB4-960D-A9D095459DFB}"/>
     <workbookView xWindow="17055" yWindow="30" windowWidth="3690" windowHeight="8055" activeTab="3" xr2:uid="{01F08989-AD10-4245-9BC1-75968EBDD16D}"/>
+    <workbookView xWindow="3120" yWindow="3720" windowWidth="8505" windowHeight="9180" xr2:uid="{E613EAC8-4DF4-4710-9363-6972E00CBF81}"/>
   </bookViews>
   <sheets>
     <sheet name="Champion Runes" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="191">
   <si>
     <t>Keystone</t>
   </si>
@@ -542,6 +542,81 @@
   </si>
   <si>
     <t>Kai'Sa AD</t>
+  </si>
+  <si>
+    <t>Mundo</t>
+  </si>
+  <si>
+    <t>Aurelion</t>
+  </si>
+  <si>
+    <t>Blitz</t>
+  </si>
+  <si>
+    <t>Cass</t>
+  </si>
+  <si>
+    <t>Cho</t>
+  </si>
+  <si>
+    <t>Fiddle</t>
+  </si>
+  <si>
+    <t>Gp</t>
+  </si>
+  <si>
+    <t>Heimer</t>
+  </si>
+  <si>
+    <t>Jarvan</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Kaisa AD</t>
+  </si>
+  <si>
+    <t>Kaisa AP</t>
+  </si>
+  <si>
+    <t>Kass</t>
+  </si>
+  <si>
+    <t>Kat</t>
+  </si>
+  <si>
+    <t>KogMaw</t>
+  </si>
+  <si>
+    <t>MasterYi</t>
+  </si>
+  <si>
+    <t>LeeSin</t>
+  </si>
+  <si>
+    <t>KhaZix</t>
+  </si>
+  <si>
+    <t>MF AD</t>
+  </si>
+  <si>
+    <t>MF AP</t>
+  </si>
+  <si>
+    <t>Morde</t>
+  </si>
+  <si>
+    <t>RekSai</t>
+  </si>
+  <si>
+    <t>Tahm</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>VelKoz</t>
   </si>
 </sst>
 </file>
@@ -1949,19 +2024,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809EE2C-19B1-4BE7-BC2A-D94C2024DB91}">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
+    <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
     <sheetView workbookViewId="3"/>
     <sheetView workbookViewId="4"/>
     <sheetView workbookViewId="5"/>
-    <sheetView workbookViewId="6"/>
+    <sheetView tabSelected="1" workbookViewId="6">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2356,72 +2431,72 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H11" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="2">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="H12" s="2">
         <v>35</v>
       </c>
-      <c r="E12" s="2">
+      <c r="I12" s="2">
         <v>37</v>
       </c>
-      <c r="F12" s="2">
-        <v>40</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="2">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2">
-        <v>22</v>
-      </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -2432,22 +2507,22 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>144</v>
@@ -2456,36 +2531,36 @@
         <v>17</v>
       </c>
       <c r="I13" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>144</v>
@@ -2494,27 +2569,27 @@
         <v>17</v>
       </c>
       <c r="I14" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C15" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
         <v>45</v>
@@ -2535,7 +2610,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K15" s="2">
         <v>4</v>
@@ -2546,34 +2621,34 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -2584,31 +2659,31 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2">
+        <v>49</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2">
         <v>20</v>
-      </c>
-      <c r="F17" s="2">
-        <v>22</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="2">
-        <v>66</v>
-      </c>
-      <c r="I17" s="2">
-        <v>50</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
@@ -2622,34 +2697,34 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H18" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I18" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -2660,31 +2735,31 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="2">
+        <v>69</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="2">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2">
-        <v>48</v>
-      </c>
-      <c r="F19" s="2">
-        <v>49</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="H19" s="2">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I19" s="2">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="J19" s="2">
         <v>1</v>
@@ -2698,34 +2773,34 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H20" s="2">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I20" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -2736,75 +2811,75 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C21" s="2">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H21" s="2">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I21" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H22" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I22" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" s="2">
         <v>5</v>
@@ -2812,7 +2887,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>147</v>
@@ -2830,13 +2905,13 @@
         <v>49</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H23" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I23" s="2">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="J23" s="2">
         <v>1</v>
@@ -2850,7 +2925,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>144</v>
@@ -2888,60 +2963,60 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2">
+        <v>69</v>
+      </c>
+      <c r="D25" s="2">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="2">
+        <v>51</v>
+      </c>
+      <c r="I25" s="2">
+        <v>50</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2">
-        <v>27</v>
-      </c>
-      <c r="F25" s="2">
-        <v>72</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="2">
-        <v>17</v>
-      </c>
-      <c r="I25" s="2">
-        <v>22</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
       <c r="L25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C26" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>144</v>
@@ -2959,27 +3034,27 @@
         <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F27" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>144</v>
@@ -2988,36 +3063,36 @@
         <v>17</v>
       </c>
       <c r="I27" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F28" s="2">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>144</v>
@@ -3026,48 +3101,48 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E29" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F29" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H29" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I29" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -3078,45 +3153,45 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C30" s="2">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F30" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H30" s="2">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
       </c>
       <c r="K30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>146</v>
@@ -3131,13 +3206,13 @@
         <v>27</v>
       </c>
       <c r="F31" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H31" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I31" s="2">
         <v>22</v>
@@ -3154,22 +3229,22 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>144</v>
@@ -3178,36 +3253,36 @@
         <v>17</v>
       </c>
       <c r="I32" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E33" s="2">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F33" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>144</v>
@@ -3230,31 +3305,31 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D34" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E34" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H34" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I34" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J34" s="2">
         <v>1</v>
@@ -3263,74 +3338,74 @@
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E35" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H35" s="2">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I35" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="2">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2">
+        <v>21</v>
+      </c>
+      <c r="F36" s="2">
+        <v>22</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="2">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="H36" s="2">
         <v>66</v>
       </c>
-      <c r="F36" s="2">
+      <c r="I36" s="2">
         <v>50</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H36" s="2">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2">
-        <v>72</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
@@ -3344,34 +3419,34 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F37" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H37" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I37" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -3382,31 +3457,31 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C38" s="2">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2">
+        <v>49</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="2">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2">
         <v>20</v>
-      </c>
-      <c r="F38" s="2">
-        <v>22</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" s="2">
-        <v>51</v>
-      </c>
-      <c r="I38" s="2">
-        <v>50</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
@@ -3420,28 +3495,28 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D39" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F39" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H39" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I39" s="2">
         <v>22</v>
@@ -3458,45 +3533,45 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C40" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F40" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H40" s="2">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I40" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
       </c>
       <c r="K40" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>144</v>
@@ -3508,7 +3583,7 @@
         <v>17</v>
       </c>
       <c r="E41" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2">
         <v>22</v>
@@ -3523,7 +3598,7 @@
         <v>50</v>
       </c>
       <c r="J41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2">
         <v>1</v>
@@ -3534,95 +3609,95 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C42" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H42" s="2">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I42" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L42" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F43" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H43" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I43" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J43" s="2">
         <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L43" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C44" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2">
         <v>17</v>
       </c>
       <c r="E44" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F44" s="2">
         <v>22</v>
@@ -3637,18 +3712,18 @@
         <v>72</v>
       </c>
       <c r="J44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>144</v>
@@ -3660,22 +3735,22 @@
         <v>17</v>
       </c>
       <c r="E45" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F45" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H45" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I45" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
         <v>4</v>
@@ -3686,28 +3761,28 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C46" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E46" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H46" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I46" s="2">
         <v>22</v>
@@ -3719,39 +3794,39 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C47" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D47" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E47" s="2">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F47" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H47" s="2">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I47" s="2">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="2">
         <v>1</v>
@@ -3762,51 +3837,51 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D48" s="2">
         <v>17</v>
       </c>
       <c r="E48" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H48" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I48" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L48" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D49" s="2">
         <v>17</v>
@@ -3818,13 +3893,13 @@
         <v>22</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H49" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I49" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J49" s="2">
         <v>2</v>
@@ -3833,27 +3908,27 @@
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C50" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E50" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F50" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>144</v>
@@ -3876,34 +3951,34 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E51" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F51" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H51" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I51" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
@@ -3914,83 +3989,83 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="2">
+        <v>69</v>
+      </c>
+      <c r="D52" s="2">
+        <v>17</v>
+      </c>
+      <c r="E52" s="2">
+        <v>20</v>
+      </c>
+      <c r="F52" s="2">
+        <v>22</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C52" s="2">
-        <v>6</v>
-      </c>
-      <c r="D52" s="2">
-        <v>29</v>
-      </c>
-      <c r="E52" s="2">
-        <v>27</v>
-      </c>
-      <c r="F52" s="2">
-        <v>31</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H52" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I52" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
       </c>
       <c r="K52" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L52" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" s="2">
+        <v>69</v>
+      </c>
+      <c r="D53" s="2">
+        <v>17</v>
+      </c>
+      <c r="E53" s="2">
+        <v>20</v>
+      </c>
+      <c r="F53" s="2">
+        <v>22</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="2">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2">
+      <c r="H53" s="2">
         <v>30</v>
       </c>
-      <c r="E53" s="2">
-        <v>27</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="I53" s="2">
         <v>72</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H53" s="2">
-        <v>18</v>
-      </c>
-      <c r="I53" s="2">
-        <v>24</v>
-      </c>
       <c r="J53" s="2">
         <v>1</v>
       </c>
       <c r="K53" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L53" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>144</v>
@@ -3999,7 +4074,7 @@
         <v>69</v>
       </c>
       <c r="D54" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" s="2">
         <v>20</v>
@@ -4014,83 +4089,83 @@
         <v>30</v>
       </c>
       <c r="I54" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
       </c>
       <c r="K54" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L54" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="2">
+        <v>69</v>
+      </c>
+      <c r="D55" s="2">
+        <v>17</v>
+      </c>
+      <c r="E55" s="2">
+        <v>19</v>
+      </c>
+      <c r="F55" s="2">
+        <v>24</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="2">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2">
-        <v>30</v>
-      </c>
-      <c r="E55" s="2">
-        <v>27</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="H55" s="2">
+        <v>29</v>
+      </c>
+      <c r="I55" s="2">
         <v>31</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55" s="2">
-        <v>17</v>
-      </c>
-      <c r="I55" s="2">
-        <v>22</v>
-      </c>
       <c r="J55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L55" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C56" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E56" s="2">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F56" s="2">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H56" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I56" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -4099,115 +4174,115 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C57" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D57" s="2">
         <v>17</v>
       </c>
       <c r="E57" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F57" s="2">
         <v>22</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H57" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I57" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C58" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E58" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F58" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>155</v>
       </c>
       <c r="H58" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I58" s="2">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" s="2">
         <v>1</v>
       </c>
       <c r="L58" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C59" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E59" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F59" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H59" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I59" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="2">
         <v>1</v>
@@ -4218,7 +4293,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>144</v>
@@ -4236,13 +4311,13 @@
         <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H60" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I60" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J60" s="2">
         <v>2</v>
@@ -4256,72 +4331,72 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C61" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D61" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E61" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F61" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H61" s="2">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I61" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J61" s="2">
         <v>1</v>
       </c>
       <c r="K61" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L61" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D62" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E62" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F62" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H62" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I62" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" s="2">
         <v>1</v>
@@ -4332,34 +4407,34 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>17</v>
+      </c>
+      <c r="E63" s="2">
+        <v>21</v>
+      </c>
+      <c r="F63" s="2">
+        <v>22</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="2">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2">
-        <v>30</v>
-      </c>
-      <c r="E63" s="2">
-        <v>27</v>
-      </c>
-      <c r="F63" s="2">
-        <v>72</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H63" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I63" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J63" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" s="2">
         <v>1</v>
@@ -4370,180 +4445,180 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C64" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E64" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F64" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H64" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I64" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
       <c r="K64" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L64" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C65" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D65" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E65" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F65" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H65" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I65" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
       </c>
       <c r="K65" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L65" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="2">
+        <v>69</v>
+      </c>
+      <c r="D66" s="2">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2">
+        <v>20</v>
+      </c>
+      <c r="F66" s="2">
+        <v>22</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="2">
+      <c r="H66" s="2">
+        <v>30</v>
+      </c>
+      <c r="I66" s="2">
+        <v>31</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="L66" s="2">
         <v>4</v>
-      </c>
-      <c r="D66" s="2">
-        <v>30</v>
-      </c>
-      <c r="E66" s="2">
-        <v>27</v>
-      </c>
-      <c r="F66" s="2">
-        <v>72</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="2">
-        <v>18</v>
-      </c>
-      <c r="I66" s="2">
-        <v>22</v>
-      </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="L66" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C67" s="2">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D67" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E67" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F67" s="2">
         <v>22</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H67" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I67" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J67" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" s="2">
         <v>1</v>
       </c>
       <c r="L67" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E68" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F68" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H68" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I68" s="2">
         <v>22</v>
@@ -4560,28 +4635,28 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E69" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F69" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H69" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I69" s="2">
         <v>22</v>
@@ -4598,92 +4673,92 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C70" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E70" s="2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H70" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I70" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
       </c>
       <c r="K70" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L70" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="2">
+        <v>69</v>
+      </c>
+      <c r="D71" s="2">
+        <v>17</v>
+      </c>
+      <c r="E71" s="2">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <v>22</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="2">
-        <v>6</v>
-      </c>
-      <c r="D71" s="2">
-        <v>29</v>
-      </c>
-      <c r="E71" s="2">
-        <v>27</v>
-      </c>
-      <c r="F71" s="2">
-        <v>72</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H71" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I71" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="K71" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L71" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C72" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E72" s="2">
         <v>27</v>
@@ -4692,13 +4767,13 @@
         <v>72</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H72" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I72" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
@@ -4707,27 +4782,27 @@
         <v>1</v>
       </c>
       <c r="L72" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D73" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E73" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F73" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>144</v>
@@ -4736,48 +4811,48 @@
         <v>17</v>
       </c>
       <c r="I73" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
       </c>
       <c r="K73" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L73" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C74" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D74" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E74" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F74" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H74" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I74" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J74" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74" s="2">
         <v>1</v>
@@ -4788,31 +4863,31 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C75" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75" s="2">
         <v>17</v>
       </c>
       <c r="E75" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F75" s="2">
         <v>22</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H75" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I75" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J75" s="2">
         <v>2</v>
@@ -4826,110 +4901,110 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C76" s="2">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D76" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E76" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F76" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H76" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I76" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
       </c>
       <c r="K76" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L76" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C77" s="2">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D77" s="2">
         <v>17</v>
       </c>
       <c r="E77" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F77" s="2">
         <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H77" s="2">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I77" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J77" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L77" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C78" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E78" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F78" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H78" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I78" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J78" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K78" s="2">
         <v>1</v>
@@ -4940,28 +5015,28 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C79" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E79" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F79" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H79" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I79" s="2">
         <v>22</v>
@@ -4978,37 +5053,37 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C80" s="2">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D80" s="2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F80" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H80" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I80" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
       </c>
       <c r="K80" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L80" s="2">
         <v>5</v>
@@ -5016,34 +5091,34 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C81" s="2">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D81" s="2">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E81" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F81" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H81" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I81" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J81" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K81" s="2">
         <v>4</v>
@@ -5054,66 +5129,66 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C82" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D82" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E82" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H82" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I82" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
       <c r="K82" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L82" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C83" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E83" s="2">
         <v>27</v>
       </c>
       <c r="F83" s="2">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H83" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I83" s="2">
         <v>22</v>
@@ -5130,34 +5205,34 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C84" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D84" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E84" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F84" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H84" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I84" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J84" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K84" s="2">
         <v>1</v>
@@ -5168,72 +5243,72 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C85" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D85" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E85" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F85" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H85" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I85" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
       <c r="K85" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L85" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C86" s="2">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E86" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F86" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H86" s="2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I86" s="2">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K86" s="2">
         <v>1</v>
@@ -5244,127 +5319,127 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E87" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H87" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I87" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L87" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C88" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D88" s="2">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E88" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F88" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H88" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I88" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L88" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C89" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E89" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F89" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H89" s="2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I89" s="2">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="K89" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L89" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C90" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2">
         <v>45</v>
@@ -5373,7 +5448,7 @@
         <v>48</v>
       </c>
       <c r="F90" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>144</v>
@@ -5396,22 +5471,22 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C91" s="2">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D91" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E91" s="2">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F91" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>146</v>
@@ -5420,48 +5495,48 @@
         <v>30</v>
       </c>
       <c r="I91" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J91" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K91" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L91" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C92" s="2">
+        <v>69</v>
+      </c>
+      <c r="D92" s="2">
+        <v>17</v>
+      </c>
+      <c r="E92" s="2">
+        <v>21</v>
+      </c>
+      <c r="F92" s="2">
+        <v>22</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C92" s="2">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2">
+      <c r="H92" s="2">
         <v>30</v>
       </c>
-      <c r="E92" s="2">
-        <v>27</v>
-      </c>
-      <c r="F92" s="2">
+      <c r="I92" s="2">
         <v>31</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H92" s="2">
-        <v>17</v>
-      </c>
-      <c r="I92" s="2">
-        <v>22</v>
-      </c>
       <c r="J92" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" s="2">
         <v>1</v>
@@ -5472,13 +5547,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C93" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93" s="2">
         <v>17</v>
@@ -5490,13 +5565,13 @@
         <v>22</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H93" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I93" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J93" s="2">
         <v>2</v>
@@ -5510,104 +5585,104 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C94" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D94" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E94" s="2">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F94" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H94" s="2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I94" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J94" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K94" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L94" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C95" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D95" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E95" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F95" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H95" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I95" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
       </c>
       <c r="K95" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L95" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C96" s="2">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E96" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F96" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H96" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I96" s="2">
         <v>22</v>
@@ -5624,7 +5699,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>144</v>
@@ -5642,118 +5717,118 @@
         <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H97" s="2">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I97" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
       </c>
       <c r="K97" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L97" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D98" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E98" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F98" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H98" s="2">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I98" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
       </c>
       <c r="K98" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L98" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C99" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D99" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E99" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F99" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H99" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I99" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
       </c>
       <c r="K99" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L99" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C100" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E100" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F100" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>144</v>
@@ -5776,31 +5851,31 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E101" s="2">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H101" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I101" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
@@ -5809,12 +5884,12 @@
         <v>1</v>
       </c>
       <c r="L101" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>147</v>
@@ -5823,13 +5898,13 @@
         <v>12</v>
       </c>
       <c r="D102" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E102" s="2">
         <v>48</v>
       </c>
       <c r="F102" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>144</v>
@@ -5841,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="J102" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K102" s="2">
         <v>4</v>
@@ -5852,7 +5927,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>146</v>
@@ -5873,7 +5948,7 @@
         <v>144</v>
       </c>
       <c r="H103" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I103" s="2">
         <v>22</v>
@@ -5890,22 +5965,22 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D104" s="2">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E104" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F104" s="2">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>144</v>
@@ -5914,21 +5989,21 @@
         <v>17</v>
       </c>
       <c r="I104" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J104" s="2">
         <v>1</v>
       </c>
       <c r="K104" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L104" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>146</v>
@@ -5937,13 +6012,13 @@
         <v>6</v>
       </c>
       <c r="D105" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E105" s="2">
         <v>27</v>
       </c>
       <c r="F105" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>144</v>
@@ -5966,7 +6041,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>147</v>
@@ -5978,19 +6053,19 @@
         <v>45</v>
       </c>
       <c r="E106" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F106" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H106" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I106" s="2">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J106" s="2">
         <v>1</v>
@@ -6004,72 +6079,72 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="2">
+        <v>69</v>
+      </c>
+      <c r="D107" s="2">
+        <v>17</v>
+      </c>
+      <c r="E107" s="2">
+        <v>21</v>
+      </c>
+      <c r="F107" s="2">
+        <v>24</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C107" s="2">
-        <v>10</v>
-      </c>
-      <c r="D107" s="2">
-        <v>44</v>
-      </c>
-      <c r="E107" s="2">
-        <v>48</v>
-      </c>
-      <c r="F107" s="2">
-        <v>49</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H107" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I107" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J107" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K107" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L107" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D108" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E108" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F108" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H108" s="2">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I108" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J108" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" s="2">
         <v>1</v>
@@ -6080,34 +6155,34 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C109" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D109" s="2">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E109" s="2">
+        <v>48</v>
+      </c>
+      <c r="F109" s="2">
+        <v>49</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H109" s="2">
+        <v>17</v>
+      </c>
+      <c r="I109" s="2">
         <v>20</v>
       </c>
-      <c r="F109" s="2">
-        <v>22</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H109" s="2">
-        <v>66</v>
-      </c>
-      <c r="I109" s="2">
-        <v>50</v>
-      </c>
       <c r="J109" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K109" s="2">
         <v>4</v>
@@ -6118,107 +6193,107 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D110" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E110" s="2">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F110" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H110" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I110" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J110" s="2">
         <v>1</v>
       </c>
       <c r="K110" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L110" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C111" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D111" s="2">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E111" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H111" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I111" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J111" s="2">
         <v>1</v>
       </c>
       <c r="K111" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L111" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="2">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45</v>
+      </c>
+      <c r="E112" s="2">
+        <v>66</v>
+      </c>
+      <c r="F112" s="2">
+        <v>50</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C112" s="2">
-        <v>4</v>
-      </c>
-      <c r="D112" s="2">
-        <v>28</v>
-      </c>
-      <c r="E112" s="2">
-        <v>27</v>
-      </c>
-      <c r="F112" s="2">
-        <v>31</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H112" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I112" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J112" s="2">
         <v>1</v>
@@ -6232,31 +6307,31 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D113" s="2">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E113" s="2">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F113" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H113" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I113" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J113" s="2">
         <v>1</v>
@@ -6270,34 +6345,34 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1</v>
+      </c>
+      <c r="D114" s="2">
+        <v>17</v>
+      </c>
+      <c r="E114" s="2">
+        <v>21</v>
+      </c>
+      <c r="F114" s="2">
+        <v>22</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="2">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2">
-        <v>28</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="H114" s="2">
+        <v>29</v>
+      </c>
+      <c r="I114" s="2">
         <v>27</v>
       </c>
-      <c r="F114" s="2">
-        <v>72</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H114" s="2">
-        <v>17</v>
-      </c>
-      <c r="I114" s="2">
-        <v>22</v>
-      </c>
       <c r="J114" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K114" s="2">
         <v>1</v>
@@ -6308,34 +6383,34 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C115" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2">
         <v>45</v>
       </c>
       <c r="E115" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F115" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H115" s="2">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I115" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J115" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115" s="2">
         <v>4</v>
@@ -6346,22 +6421,22 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C116" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E116" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>144</v>
@@ -6370,30 +6445,30 @@
         <v>17</v>
       </c>
       <c r="I116" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J116" s="2">
         <v>1</v>
       </c>
       <c r="K116" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L116" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C117" s="2">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D117" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E117" s="2">
         <v>27</v>
@@ -6422,69 +6497,69 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C118" s="2">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D118" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E118" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F118" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H118" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I118" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J118" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K118" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L118" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="2">
+        <v>69</v>
+      </c>
+      <c r="D119" s="2">
+        <v>17</v>
+      </c>
+      <c r="E119" s="2">
+        <v>20</v>
+      </c>
+      <c r="F119" s="2">
+        <v>22</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C119" s="2">
-        <v>6</v>
-      </c>
-      <c r="D119" s="2">
-        <v>29</v>
-      </c>
-      <c r="E119" s="2">
-        <v>27</v>
-      </c>
-      <c r="F119" s="2">
+      <c r="H119" s="2">
         <v>31</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H119" s="2">
-        <v>17</v>
-      </c>
       <c r="I119" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J119" s="2">
         <v>1</v>
@@ -6498,22 +6573,22 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D120" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E120" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F120" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>144</v>
@@ -6522,124 +6597,124 @@
         <v>17</v>
       </c>
       <c r="I120" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J120" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L120" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C121" s="2">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D121" s="2">
         <v>17</v>
       </c>
       <c r="E121" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F121" s="2">
         <v>22</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H121" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I121" s="2">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K121" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L121" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E122" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F122" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H122" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I122" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K122" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L122" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C123" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E123" s="2">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F123" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H123" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I123" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J123" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K123" s="2">
         <v>1</v>
@@ -6650,72 +6725,72 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C124" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E124" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F124" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H124" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I124" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J124" s="2">
         <v>1</v>
       </c>
       <c r="K124" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L124" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C125" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D125" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E125" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F125" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H125" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I125" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="J125" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K125" s="2">
         <v>1</v>
@@ -6726,34 +6801,34 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C126" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D126" s="2">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E126" s="2">
+        <v>48</v>
+      </c>
+      <c r="F126" s="2">
+        <v>49</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H126" s="2">
+        <v>17</v>
+      </c>
+      <c r="I126" s="2">
         <v>20</v>
       </c>
-      <c r="F126" s="2">
-        <v>22</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H126" s="2">
-        <v>50</v>
-      </c>
-      <c r="I126" s="2">
-        <v>66</v>
-      </c>
       <c r="J126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" s="2">
         <v>4</v>
@@ -6764,98 +6839,98 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C127" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E127" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F127" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H127" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I127" s="2">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J127" s="2">
         <v>1</v>
       </c>
       <c r="K127" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L127" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C128" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E128" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F128" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H128" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I128" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J128" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L128" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C129" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D129" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E129" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F129" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>144</v>
@@ -6864,33 +6939,33 @@
         <v>17</v>
       </c>
       <c r="I129" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J129" s="2">
         <v>1</v>
       </c>
       <c r="K129" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L129" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C130" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D130" s="2">
         <v>17</v>
       </c>
       <c r="E130" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F130" s="2">
         <v>22</v>
@@ -6916,60 +6991,60 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C131" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D131" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E131" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F131" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H131" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I131" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J131" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K131" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L131" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C132" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D132" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E132" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F132" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>144</v>
@@ -6992,28 +7067,28 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C133" s="2">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="D133" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E133" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F133" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H133" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I133" s="2">
         <v>22</v>
@@ -7030,16 +7105,16 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C134" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D134" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E134" s="2">
         <v>27</v>
@@ -7051,7 +7126,7 @@
         <v>144</v>
       </c>
       <c r="H134" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I134" s="2">
         <v>22</v>
@@ -7060,39 +7135,39 @@
         <v>1</v>
       </c>
       <c r="K134" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L134" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D135" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E135" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F135" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H135" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I135" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J135" s="2">
         <v>1</v>
@@ -7106,22 +7181,22 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C136" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D136" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E136" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F136" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>144</v>
@@ -7130,21 +7205,21 @@
         <v>17</v>
       </c>
       <c r="I136" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J136" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K136" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L136" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>147</v>
@@ -7182,22 +7257,22 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C138" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D138" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E138" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F138" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>144</v>
@@ -7206,48 +7281,48 @@
         <v>17</v>
       </c>
       <c r="I138" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J138" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K138" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L138" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D139" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E139" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F139" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H139" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I139" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K139" s="2">
         <v>1</v>
@@ -7258,7 +7333,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>146</v>
@@ -7267,13 +7342,13 @@
         <v>6</v>
       </c>
       <c r="D140" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E140" s="2">
         <v>27</v>
       </c>
       <c r="F140" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>144</v>
@@ -7296,72 +7371,72 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C141" s="2">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E141" s="2">
+        <v>48</v>
+      </c>
+      <c r="F141" s="2">
+        <v>50</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H141" s="2">
+        <v>18</v>
+      </c>
+      <c r="I141" s="2">
         <v>20</v>
       </c>
-      <c r="F141" s="2">
-        <v>22</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H141" s="2">
-        <v>50</v>
-      </c>
-      <c r="I141" s="2">
-        <v>66</v>
-      </c>
       <c r="J141" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K141" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L141" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C142" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D142" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E142" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F142" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H142" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I142" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J142" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K142" s="2">
         <v>1</v>
@@ -7372,19 +7447,19 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C143" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D143" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E143" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F143" s="2">
         <v>49</v>
@@ -7399,7 +7474,7 @@
         <v>20</v>
       </c>
       <c r="J143" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K143" s="2">
         <v>4</v>
@@ -7410,34 +7485,34 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C144" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D144" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E144" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F144" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H144" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I144" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J144" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K144" s="2">
         <v>1</v>
@@ -7448,13 +7523,13 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C145" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D145" s="2">
         <v>45</v>
@@ -7463,7 +7538,7 @@
         <v>48</v>
       </c>
       <c r="F145" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>144</v>
@@ -7475,45 +7550,45 @@
         <v>20</v>
       </c>
       <c r="J145" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K145" s="2">
         <v>4</v>
       </c>
       <c r="L145" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2</v>
+      </c>
+      <c r="D146" s="2">
+        <v>17</v>
+      </c>
+      <c r="E146" s="2">
+        <v>21</v>
+      </c>
+      <c r="F146" s="2">
+        <v>24</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="2">
-        <v>6</v>
-      </c>
-      <c r="D146" s="2">
+      <c r="H146" s="2">
         <v>30</v>
       </c>
-      <c r="E146" s="2">
-        <v>27</v>
-      </c>
-      <c r="F146" s="2">
+      <c r="I146" s="2">
         <v>31</v>
       </c>
-      <c r="G146" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H146" s="2">
-        <v>17</v>
-      </c>
-      <c r="I146" s="2">
-        <v>22</v>
-      </c>
       <c r="J146" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K146" s="2">
         <v>1</v>
@@ -7524,7 +7599,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>146</v>
@@ -7533,13 +7608,13 @@
         <v>6</v>
       </c>
       <c r="D147" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E147" s="2">
         <v>27</v>
       </c>
       <c r="F147" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>144</v>
@@ -7562,22 +7637,22 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D148" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148" s="2">
         <v>27</v>
       </c>
       <c r="F148" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>144</v>
@@ -7600,34 +7675,34 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C149" s="2">
+        <v>2</v>
+      </c>
+      <c r="D149" s="2">
+        <v>17</v>
+      </c>
+      <c r="E149" s="2">
+        <v>21</v>
+      </c>
+      <c r="F149" s="2">
+        <v>22</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C149" s="2">
-        <v>6</v>
-      </c>
-      <c r="D149" s="2">
+      <c r="H149" s="2">
         <v>30</v>
       </c>
-      <c r="E149" s="2">
-        <v>27</v>
-      </c>
-      <c r="F149" s="2">
-        <v>33</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H149" s="2">
-        <v>17</v>
-      </c>
       <c r="I149" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J149" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K149" s="2">
         <v>1</v>
@@ -7638,39 +7713,989 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C150" s="2">
+        <v>69</v>
+      </c>
+      <c r="D150" s="2">
+        <v>17</v>
+      </c>
+      <c r="E150" s="2">
+        <v>20</v>
+      </c>
+      <c r="F150" s="2">
+        <v>22</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H150" s="2">
+        <v>50</v>
+      </c>
+      <c r="I150" s="2">
+        <v>66</v>
+      </c>
+      <c r="J150" s="2">
+        <v>2</v>
+      </c>
+      <c r="K150" s="2">
+        <v>4</v>
+      </c>
+      <c r="L150" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C151" s="2">
+        <v>69</v>
+      </c>
+      <c r="D151" s="2">
+        <v>17</v>
+      </c>
+      <c r="E151" s="2">
+        <v>20</v>
+      </c>
+      <c r="F151" s="2">
+        <v>24</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H151" s="2">
+        <v>50</v>
+      </c>
+      <c r="I151" s="2">
+        <v>66</v>
+      </c>
+      <c r="J151" s="2">
+        <v>1</v>
+      </c>
+      <c r="K151" s="2">
+        <v>4</v>
+      </c>
+      <c r="L151" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C152" s="2">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2">
+        <v>17</v>
+      </c>
+      <c r="E152" s="2">
+        <v>21</v>
+      </c>
+      <c r="F152" s="2">
+        <v>22</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H152" s="2">
+        <v>55</v>
+      </c>
+      <c r="I152" s="2">
+        <v>53</v>
+      </c>
+      <c r="J152" s="2">
+        <v>2</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1</v>
+      </c>
+      <c r="L152" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" s="2">
+        <v>6</v>
+      </c>
+      <c r="D153" s="2">
+        <v>29</v>
+      </c>
+      <c r="E153" s="2">
+        <v>27</v>
+      </c>
+      <c r="F153" s="2">
+        <v>31</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H153" s="2">
+        <v>17</v>
+      </c>
+      <c r="I153" s="2">
+        <v>22</v>
+      </c>
+      <c r="J153" s="2">
+        <v>1</v>
+      </c>
+      <c r="K153" s="2">
+        <v>1</v>
+      </c>
+      <c r="L153" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3</v>
+      </c>
+      <c r="D154" s="2">
+        <v>17</v>
+      </c>
+      <c r="E154" s="2">
+        <v>19</v>
+      </c>
+      <c r="F154" s="2">
+        <v>22</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H154" s="2">
+        <v>29</v>
+      </c>
+      <c r="I154" s="2">
+        <v>31</v>
+      </c>
+      <c r="J154" s="2">
+        <v>2</v>
+      </c>
+      <c r="K154" s="2">
+        <v>1</v>
+      </c>
+      <c r="L154" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C155" s="2">
+        <v>6</v>
+      </c>
+      <c r="D155" s="2">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>27</v>
+      </c>
+      <c r="F155" s="2">
+        <v>72</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H155" s="2">
+        <v>18</v>
+      </c>
+      <c r="I155" s="2">
+        <v>22</v>
+      </c>
+      <c r="J155" s="2">
+        <v>1</v>
+      </c>
+      <c r="K155" s="2">
+        <v>1</v>
+      </c>
+      <c r="L155" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" s="2">
+        <v>6</v>
+      </c>
+      <c r="D156" s="2">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>27</v>
+      </c>
+      <c r="F156" s="2">
+        <v>72</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H156" s="2">
+        <v>18</v>
+      </c>
+      <c r="I156" s="2">
+        <v>22</v>
+      </c>
+      <c r="J156" s="2">
+        <v>1</v>
+      </c>
+      <c r="K156" s="2">
+        <v>1</v>
+      </c>
+      <c r="L156" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" s="2">
+        <v>6</v>
+      </c>
+      <c r="D157" s="2">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>27</v>
+      </c>
+      <c r="F157" s="2">
+        <v>72</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H157" s="2">
+        <v>18</v>
+      </c>
+      <c r="I157" s="2">
+        <v>22</v>
+      </c>
+      <c r="J157" s="2">
+        <v>1</v>
+      </c>
+      <c r="K157" s="2">
+        <v>1</v>
+      </c>
+      <c r="L157" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C158" s="2">
+        <v>71</v>
+      </c>
+      <c r="D158" s="2">
+        <v>30</v>
+      </c>
+      <c r="E158" s="2">
+        <v>27</v>
+      </c>
+      <c r="F158" s="2">
+        <v>72</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H158" s="2">
+        <v>17</v>
+      </c>
+      <c r="I158" s="2">
+        <v>22</v>
+      </c>
+      <c r="J158" s="2">
+        <v>1</v>
+      </c>
+      <c r="K158" s="2">
+        <v>1</v>
+      </c>
+      <c r="L158" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C159" s="2">
+        <v>6</v>
+      </c>
+      <c r="D159" s="2">
+        <v>29</v>
+      </c>
+      <c r="E159" s="2">
+        <v>27</v>
+      </c>
+      <c r="F159" s="2">
+        <v>31</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H159" s="2">
+        <v>18</v>
+      </c>
+      <c r="I159" s="2">
+        <v>22</v>
+      </c>
+      <c r="J159" s="2">
+        <v>1</v>
+      </c>
+      <c r="K159" s="2">
+        <v>1</v>
+      </c>
+      <c r="L159" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C160" s="2">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2">
+        <v>70</v>
+      </c>
+      <c r="E160" s="2">
+        <v>38</v>
+      </c>
+      <c r="F160" s="2">
+        <v>40</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H160" s="2">
+        <v>17</v>
+      </c>
+      <c r="I160" s="2">
+        <v>22</v>
+      </c>
+      <c r="J160" s="2">
+        <v>1</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1</v>
+      </c>
+      <c r="L160" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C161" s="2">
+        <v>10</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45</v>
+      </c>
+      <c r="E161" s="2">
+        <v>48</v>
+      </c>
+      <c r="F161" s="2">
+        <v>49</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H161" s="2">
+        <v>17</v>
+      </c>
+      <c r="I161" s="2">
+        <v>20</v>
+      </c>
+      <c r="J161" s="2">
+        <v>2</v>
+      </c>
+      <c r="K161" s="2">
+        <v>4</v>
+      </c>
+      <c r="L161" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162" s="2">
+        <v>10</v>
+      </c>
+      <c r="D162" s="2">
+        <v>45</v>
+      </c>
+      <c r="E162" s="2">
+        <v>48</v>
+      </c>
+      <c r="F162" s="2">
+        <v>49</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H162" s="2">
+        <v>17</v>
+      </c>
+      <c r="I162" s="2">
+        <v>20</v>
+      </c>
+      <c r="J162" s="2">
+        <v>2</v>
+      </c>
+      <c r="K162" s="2">
+        <v>4</v>
+      </c>
+      <c r="L162" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C163" s="2">
+        <v>6</v>
+      </c>
+      <c r="D163" s="2">
+        <v>30</v>
+      </c>
+      <c r="E163" s="2">
+        <v>27</v>
+      </c>
+      <c r="F163" s="2">
+        <v>72</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H163" s="2">
+        <v>17</v>
+      </c>
+      <c r="I163" s="2">
+        <v>22</v>
+      </c>
+      <c r="J163" s="2">
+        <v>1</v>
+      </c>
+      <c r="K163" s="2">
+        <v>1</v>
+      </c>
+      <c r="L163" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+      <c r="D164" s="2">
+        <v>17</v>
+      </c>
+      <c r="E164" s="2">
+        <v>21</v>
+      </c>
+      <c r="F164" s="2">
+        <v>22</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H164" s="2">
+        <v>55</v>
+      </c>
+      <c r="I164" s="2">
+        <v>53</v>
+      </c>
+      <c r="J164" s="2">
+        <v>2</v>
+      </c>
+      <c r="K164" s="2">
+        <v>1</v>
+      </c>
+      <c r="L164" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C165" s="2">
+        <v>6</v>
+      </c>
+      <c r="D165" s="2">
+        <v>29</v>
+      </c>
+      <c r="E165" s="2">
+        <v>27</v>
+      </c>
+      <c r="F165" s="2">
+        <v>72</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H165" s="2">
+        <v>17</v>
+      </c>
+      <c r="I165" s="2">
+        <v>22</v>
+      </c>
+      <c r="J165" s="2">
+        <v>1</v>
+      </c>
+      <c r="K165" s="2">
+        <v>1</v>
+      </c>
+      <c r="L165" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C166" s="2">
+        <v>69</v>
+      </c>
+      <c r="D166" s="2">
+        <v>17</v>
+      </c>
+      <c r="E166" s="2">
+        <v>20</v>
+      </c>
+      <c r="F166" s="2">
+        <v>22</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H166" s="2">
+        <v>50</v>
+      </c>
+      <c r="I166" s="2">
+        <v>66</v>
+      </c>
+      <c r="J166" s="2">
+        <v>2</v>
+      </c>
+      <c r="K166" s="2">
+        <v>1</v>
+      </c>
+      <c r="L166" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C167" s="2">
+        <v>69</v>
+      </c>
+      <c r="D167" s="2">
+        <v>17</v>
+      </c>
+      <c r="E167" s="2">
+        <v>19</v>
+      </c>
+      <c r="F167" s="2">
+        <v>22</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H167" s="2">
+        <v>30</v>
+      </c>
+      <c r="I167" s="2">
+        <v>31</v>
+      </c>
+      <c r="J167" s="2">
+        <v>2</v>
+      </c>
+      <c r="K167" s="2">
+        <v>1</v>
+      </c>
+      <c r="L167" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C168" s="2">
+        <v>10</v>
+      </c>
+      <c r="D168" s="2">
+        <v>44</v>
+      </c>
+      <c r="E168" s="2">
+        <v>66</v>
+      </c>
+      <c r="F168" s="2">
+        <v>49</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H168" s="2">
+        <v>17</v>
+      </c>
+      <c r="I168" s="2">
+        <v>20</v>
+      </c>
+      <c r="J168" s="2">
+        <v>2</v>
+      </c>
+      <c r="K168" s="2">
+        <v>4</v>
+      </c>
+      <c r="L168" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C169" s="2">
+        <v>7</v>
+      </c>
+      <c r="D169" s="2">
+        <v>35</v>
+      </c>
+      <c r="E169" s="2">
+        <v>37</v>
+      </c>
+      <c r="F169" s="2">
+        <v>40</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H169" s="2">
+        <v>18</v>
+      </c>
+      <c r="I169" s="2">
+        <v>22</v>
+      </c>
+      <c r="J169" s="2">
+        <v>1</v>
+      </c>
+      <c r="K169" s="2">
+        <v>1</v>
+      </c>
+      <c r="L169" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C170" s="2">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45</v>
+      </c>
+      <c r="E170" s="2">
+        <v>48</v>
+      </c>
+      <c r="F170" s="2">
+        <v>49</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H170" s="2">
+        <v>17</v>
+      </c>
+      <c r="I170" s="2">
+        <v>20</v>
+      </c>
+      <c r="J170" s="2">
+        <v>1</v>
+      </c>
+      <c r="K170" s="2">
+        <v>4</v>
+      </c>
+      <c r="L170" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C171" s="2">
+        <v>6</v>
+      </c>
+      <c r="D171" s="2">
+        <v>30</v>
+      </c>
+      <c r="E171" s="2">
+        <v>27</v>
+      </c>
+      <c r="F171" s="2">
+        <v>31</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H171" s="2">
+        <v>17</v>
+      </c>
+      <c r="I171" s="2">
+        <v>22</v>
+      </c>
+      <c r="J171" s="2">
+        <v>1</v>
+      </c>
+      <c r="K171" s="2">
+        <v>1</v>
+      </c>
+      <c r="L171" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C172" s="2">
+        <v>6</v>
+      </c>
+      <c r="D172" s="2">
+        <v>29</v>
+      </c>
+      <c r="E172" s="2">
+        <v>27</v>
+      </c>
+      <c r="F172" s="2">
+        <v>72</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H172" s="2">
+        <v>18</v>
+      </c>
+      <c r="I172" s="2">
+        <v>22</v>
+      </c>
+      <c r="J172" s="2">
+        <v>1</v>
+      </c>
+      <c r="K172" s="2">
+        <v>1</v>
+      </c>
+      <c r="L172" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173" s="2">
+        <v>4</v>
+      </c>
+      <c r="D173" s="2">
+        <v>29</v>
+      </c>
+      <c r="E173" s="2">
+        <v>27</v>
+      </c>
+      <c r="F173" s="2">
+        <v>72</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H173" s="2">
+        <v>18</v>
+      </c>
+      <c r="I173" s="2">
+        <v>22</v>
+      </c>
+      <c r="J173" s="2">
+        <v>1</v>
+      </c>
+      <c r="K173" s="2">
+        <v>1</v>
+      </c>
+      <c r="L173" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" s="2">
+        <v>6</v>
+      </c>
+      <c r="D174" s="2">
+        <v>30</v>
+      </c>
+      <c r="E174" s="2">
+        <v>27</v>
+      </c>
+      <c r="F174" s="2">
+        <v>33</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H174" s="2">
+        <v>17</v>
+      </c>
+      <c r="I174" s="2">
+        <v>22</v>
+      </c>
+      <c r="J174" s="2">
+        <v>1</v>
+      </c>
+      <c r="K174" s="2">
+        <v>1</v>
+      </c>
+      <c r="L174" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="2">
-        <v>6</v>
-      </c>
-      <c r="D150" s="2">
+      <c r="C175" s="2">
+        <v>6</v>
+      </c>
+      <c r="D175" s="2">
         <v>29</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E175" s="2">
         <v>27</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F175" s="2">
         <v>72</v>
       </c>
-      <c r="G150" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H150" s="2">
+      <c r="G175" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H175" s="2">
         <v>18</v>
       </c>
-      <c r="I150" s="2">
-        <v>22</v>
-      </c>
-      <c r="J150" s="2">
-        <v>1</v>
-      </c>
-      <c r="K150" s="2">
-        <v>1</v>
-      </c>
-      <c r="L150" s="2">
+      <c r="I175" s="2">
+        <v>22</v>
+      </c>
+      <c r="J175" s="2">
+        <v>1</v>
+      </c>
+      <c r="K175" s="2">
+        <v>1</v>
+      </c>
+      <c r="L175" s="2">
         <v>6</v>
       </c>
     </row>
@@ -7687,11 +8712,11 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView topLeftCell="A10" workbookViewId="2"/>
+    <sheetView topLeftCell="A10" workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
     <sheetView workbookViewId="3"/>
-    <sheetView workbookViewId="4"/>
-    <sheetView tabSelected="1" workbookViewId="5"/>
+    <sheetView tabSelected="1" workbookViewId="4"/>
+    <sheetView workbookViewId="5"/>
     <sheetView workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7760,8 +8785,8 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
-    <sheetView tabSelected="1" workbookViewId="3"/>
+    <sheetView tabSelected="1" workbookViewId="2"/>
+    <sheetView workbookViewId="3"/>
     <sheetView workbookViewId="4"/>
     <sheetView workbookViewId="5"/>
     <sheetView workbookViewId="6"/>
@@ -7838,8 +8863,8 @@
     <sheetView workbookViewId="2"/>
     <sheetView workbookViewId="3"/>
     <sheetView workbookViewId="4"/>
-    <sheetView workbookViewId="5"/>
-    <sheetView tabSelected="1" workbookViewId="6"/>
+    <sheetView tabSelected="1" workbookViewId="5"/>
+    <sheetView workbookViewId="6"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7974,8 +8999,8 @@
     </sheetView>
     <sheetView workbookViewId="1"/>
     <sheetView workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
-    <sheetView tabSelected="1" workbookViewId="4"/>
+    <sheetView tabSelected="1" workbookViewId="3"/>
+    <sheetView workbookViewId="4"/>
     <sheetView workbookViewId="5"/>
     <sheetView workbookViewId="6"/>
   </sheetViews>
@@ -8041,10 +9066,10 @@
     <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" workbookViewId="2">
+    <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
+    <sheetView workbookViewId="2"/>
     <sheetView workbookViewId="3"/>
     <sheetView workbookViewId="4"/>
     <sheetView workbookViewId="5"/>

--- a/Champion-Runes.xlsx
+++ b/Champion-Runes.xlsx
@@ -8,15 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duc\Desktop\IRL Useful\ARAM Runes Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD2B86D-F320-4DF6-B79D-7EC1071C4C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5100FC36-4C7E-4422-A5C5-7C21E19C8F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20775" yWindow="30" windowWidth="3690" windowHeight="8370" tabRatio="646" firstSheet="4" activeTab="4" xr2:uid="{05130611-41D6-43C8-B73A-9762CE92870A}"/>
-    <workbookView xWindow="17130" yWindow="7785" windowWidth="3300" windowHeight="6435" firstSheet="6" activeTab="6" xr2:uid="{B0B8A4CF-9A6F-48B0-AD68-9ED65BEAE22B}"/>
-    <workbookView xWindow="24435" yWindow="30" windowWidth="4410" windowHeight="8205" firstSheet="2" activeTab="2" xr2:uid="{FF81866E-A5AA-4548-837C-48FE481E8A96}"/>
-    <workbookView xWindow="25065" yWindow="7515" windowWidth="3705" windowHeight="8220" firstSheet="5" activeTab="5" xr2:uid="{3EC68EC8-DD93-4836-B4ED-D69B4814133D}"/>
-    <workbookView xWindow="17580" yWindow="4035" windowWidth="4305" windowHeight="8385" firstSheet="1" activeTab="1" xr2:uid="{E34CFB41-02AE-4BB4-960D-A9D095459DFB}"/>
-    <workbookView xWindow="17055" yWindow="30" windowWidth="3690" windowHeight="8055" activeTab="3" xr2:uid="{01F08989-AD10-4245-9BC1-75968EBDD16D}"/>
-    <workbookView xWindow="3120" yWindow="3720" windowWidth="8505" windowHeight="9180" xr2:uid="{E613EAC8-4DF4-4710-9363-6972E00CBF81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E613EAC8-4DF4-4710-9363-6972E00CBF81}"/>
   </bookViews>
   <sheets>
     <sheet name="Champion Runes" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,6 @@
     <sheet name="Stats" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="192">
   <si>
     <t>Keystone</t>
   </si>
@@ -617,6 +610,9 @@
   </si>
   <si>
     <t>VelKoz</t>
+  </si>
+  <si>
+    <t>ChoGath</t>
   </si>
 </sst>
 </file>
@@ -2024,18 +2020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809EE2C-19B1-4BE7-BC2A-D94C2024DB91}">
-  <dimension ref="A1:L175"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
-    <sheetView workbookViewId="4"/>
-    <sheetView workbookViewId="5"/>
-    <sheetView tabSelected="1" workbookViewId="6">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,7 +2875,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>147</v>
@@ -2925,113 +2913,113 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H24" s="2">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I24" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L24" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C25" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2">
         <v>17</v>
       </c>
       <c r="E25" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="2">
         <v>22</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H25" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I25" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="2">
+        <v>69</v>
+      </c>
+      <c r="D26" s="2">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <v>22</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="2">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2">
-        <v>73</v>
-      </c>
-      <c r="E26" s="2">
-        <v>66</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="H26" s="2">
+        <v>51</v>
+      </c>
+      <c r="I26" s="2">
         <v>50</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="2">
-        <v>17</v>
-      </c>
-      <c r="I26" s="2">
-        <v>22</v>
-      </c>
       <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L26" s="2">
         <v>5</v>
@@ -3039,22 +3027,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C27" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>144</v>
@@ -3063,13 +3051,13 @@
         <v>17</v>
       </c>
       <c r="I27" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
         <v>5</v>
@@ -3077,7 +3065,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>147</v>
@@ -3115,72 +3103,72 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F29" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H29" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I29" s="2">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F30" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H30" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I30" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -3191,13 +3179,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C31" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2">
         <v>30</v>
@@ -3206,7 +3194,7 @@
         <v>27</v>
       </c>
       <c r="F31" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>144</v>
@@ -3229,7 +3217,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>146</v>
@@ -3244,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>144</v>
@@ -3267,22 +3255,22 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="2">
-        <v>15</v>
-      </c>
-      <c r="D33" s="2">
-        <v>55</v>
-      </c>
       <c r="E33" s="2">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>144</v>
@@ -3305,28 +3293,28 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C34" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E34" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F34" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H34" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="2">
         <v>22</v>
@@ -3343,7 +3331,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>146</v>
@@ -3381,136 +3369,136 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F36" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H36" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I36" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J36" s="2">
         <v>1</v>
       </c>
       <c r="K36" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C37" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E37" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F37" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H37" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I37" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L37" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E38" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F38" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H38" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I38" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L38" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C39" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>144</v>
@@ -3519,21 +3507,21 @@
         <v>17</v>
       </c>
       <c r="I39" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
       <c r="K39" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>147</v>
@@ -3571,31 +3559,31 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C41" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F41" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H41" s="2">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I41" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J41" s="2">
         <v>1</v>
@@ -3604,18 +3592,18 @@
         <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D42" s="2">
         <v>17</v>
@@ -3630,16 +3618,16 @@
         <v>147</v>
       </c>
       <c r="H42" s="2">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I42" s="2">
         <v>50</v>
       </c>
       <c r="J42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L42" s="2">
         <v>5</v>
@@ -3647,34 +3635,34 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2">
+        <v>22</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="2">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2">
-        <v>45</v>
-      </c>
-      <c r="E43" s="2">
-        <v>66</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="H43" s="2">
+        <v>51</v>
+      </c>
+      <c r="I43" s="2">
         <v>50</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="2">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2">
-        <v>72</v>
-      </c>
       <c r="J43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="2">
         <v>4</v>
@@ -3685,22 +3673,22 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C44" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D44" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>146</v>
@@ -3712,94 +3700,94 @@
         <v>72</v>
       </c>
       <c r="J44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L44" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C45" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2">
         <v>17</v>
       </c>
       <c r="E45" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="2">
         <v>22</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H45" s="2">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I45" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C46" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D46" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F46" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H46" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I46" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
       </c>
       <c r="K46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L46" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>148</v>
@@ -3837,45 +3825,45 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C48" s="2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D48" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E48" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F48" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H48" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I48" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
       </c>
       <c r="K48" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>144</v>
@@ -3887,10 +3875,10 @@
         <v>17</v>
       </c>
       <c r="E49" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>147</v>
@@ -3902,10 +3890,10 @@
         <v>50</v>
       </c>
       <c r="J49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L49" s="2">
         <v>5</v>
@@ -3913,45 +3901,45 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C50" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F50" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H50" s="2">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I50" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" s="2">
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>148</v>
@@ -3972,7 +3960,7 @@
         <v>144</v>
       </c>
       <c r="H51" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I51" s="2">
         <v>22</v>
@@ -3989,45 +3977,45 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C52" s="2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E52" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F52" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H52" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I52" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="J52" s="2">
         <v>1</v>
       </c>
       <c r="K52" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>144</v>
@@ -4065,7 +4053,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>144</v>
@@ -4103,7 +4091,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>144</v>
@@ -4115,22 +4103,22 @@
         <v>17</v>
       </c>
       <c r="E55" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H55" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I55" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="J55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2">
         <v>4</v>
@@ -4141,107 +4129,107 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="2">
+        <v>69</v>
+      </c>
+      <c r="D56" s="2">
+        <v>17</v>
+      </c>
+      <c r="E56" s="2">
+        <v>19</v>
+      </c>
+      <c r="F56" s="2">
+        <v>24</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="2">
-        <v>6</v>
-      </c>
-      <c r="D56" s="2">
+      <c r="H56" s="2">
         <v>29</v>
       </c>
-      <c r="E56" s="2">
-        <v>27</v>
-      </c>
-      <c r="F56" s="2">
-        <v>33</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H56" s="2">
-        <v>17</v>
-      </c>
       <c r="I56" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L56" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F57" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H57" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I57" s="2">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" s="2">
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" s="2">
         <v>17</v>
       </c>
       <c r="E58" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F58" s="2">
         <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H58" s="2">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I58" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J58" s="2">
         <v>2</v>
@@ -4255,13 +4243,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2">
         <v>17</v>
@@ -4293,7 +4281,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>144</v>
@@ -4331,34 +4319,34 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E61" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F61" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H61" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I61" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" s="2">
         <v>1</v>
@@ -4369,7 +4357,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>146</v>
@@ -4407,34 +4395,34 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C63" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D63" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E63" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F63" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H63" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I63" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J63" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" s="2">
         <v>1</v>
@@ -4445,34 +4433,34 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2">
+        <v>21</v>
+      </c>
+      <c r="F64" s="2">
+        <v>22</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C64" s="2">
-        <v>6</v>
-      </c>
-      <c r="D64" s="2">
+      <c r="H64" s="2">
         <v>29</v>
       </c>
-      <c r="E64" s="2">
-        <v>27</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="I64" s="2">
         <v>31</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H64" s="2">
-        <v>17</v>
-      </c>
-      <c r="I64" s="2">
-        <v>22</v>
-      </c>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" s="2">
         <v>1</v>
@@ -4483,7 +4471,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>146</v>
@@ -4492,22 +4480,22 @@
         <v>6</v>
       </c>
       <c r="D65" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="2">
         <v>27</v>
       </c>
       <c r="F65" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H65" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I65" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J65" s="2">
         <v>1</v>
@@ -4521,31 +4509,31 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C66" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2">
+        <v>30</v>
+      </c>
+      <c r="E66" s="2">
+        <v>27</v>
+      </c>
+      <c r="F66" s="2">
+        <v>72</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H66" s="2">
         <v>18</v>
       </c>
-      <c r="E66" s="2">
-        <v>20</v>
-      </c>
-      <c r="F66" s="2">
-        <v>22</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H66" s="2">
-        <v>30</v>
-      </c>
       <c r="I66" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -4554,12 +4542,12 @@
         <v>1</v>
       </c>
       <c r="L66" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>144</v>
@@ -4597,32 +4585,32 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="2">
+        <v>69</v>
+      </c>
+      <c r="D68" s="2">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2">
+        <v>22</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="2">
-        <v>6</v>
-      </c>
-      <c r="D68" s="2">
+      <c r="H68" s="2">
         <v>30</v>
       </c>
-      <c r="E68" s="2">
-        <v>27</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="I68" s="2">
         <v>31</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="2">
-        <v>17</v>
-      </c>
-      <c r="I68" s="2">
-        <v>22</v>
-      </c>
       <c r="J68" s="2">
         <v>1</v>
       </c>
@@ -4630,12 +4618,12 @@
         <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>146</v>
@@ -4673,31 +4661,31 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E70" s="2">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F70" s="2">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H70" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I70" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -4711,75 +4699,75 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C71" s="2">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E71" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F71" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H71" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I71" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
       </c>
       <c r="K71" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L71" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="2">
+        <v>69</v>
+      </c>
+      <c r="D72" s="2">
+        <v>17</v>
+      </c>
+      <c r="E72" s="2">
+        <v>20</v>
+      </c>
+      <c r="F72" s="2">
+        <v>22</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="2">
+      <c r="H72" s="2">
+        <v>30</v>
+      </c>
+      <c r="I72" s="2">
+        <v>31</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
         <v>4</v>
-      </c>
-      <c r="D72" s="2">
-        <v>30</v>
-      </c>
-      <c r="E72" s="2">
-        <v>27</v>
-      </c>
-      <c r="F72" s="2">
-        <v>72</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H72" s="2">
-        <v>54</v>
-      </c>
-      <c r="I72" s="2">
-        <v>58</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
       </c>
       <c r="L72" s="2">
         <v>5</v>
@@ -4787,13 +4775,13 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C73" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73" s="2">
         <v>30</v>
@@ -4802,16 +4790,16 @@
         <v>27</v>
       </c>
       <c r="F73" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H73" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I73" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -4820,12 +4808,12 @@
         <v>1</v>
       </c>
       <c r="L73" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>146</v>
@@ -4863,34 +4851,34 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C75" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D75" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E75" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F75" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H75" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I75" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J75" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2">
         <v>1</v>
@@ -4901,83 +4889,83 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C76" s="2">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2">
         <v>17</v>
       </c>
       <c r="E76" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F76" s="2">
         <v>22</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H76" s="2">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I76" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J76" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L76" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C77" s="2">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D77" s="2">
         <v>17</v>
       </c>
       <c r="E77" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F77" s="2">
         <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H77" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I77" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L77" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>144</v>
@@ -5015,34 +5003,34 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C79" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E79" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F79" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H79" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I79" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79" s="2">
         <v>1</v>
@@ -5053,45 +5041,45 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C80" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D80" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E80" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F80" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H80" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I80" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
       </c>
       <c r="K80" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L80" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>144</v>
@@ -5129,31 +5117,31 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C82" s="2">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D82" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E82" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F82" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H82" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I82" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -5167,72 +5155,72 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C83" s="2">
+        <v>12</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45</v>
+      </c>
+      <c r="E83" s="2">
+        <v>48</v>
+      </c>
+      <c r="F83" s="2">
+        <v>49</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H83" s="2">
+        <v>17</v>
+      </c>
+      <c r="I83" s="2">
+        <v>20</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
         <v>4</v>
       </c>
-      <c r="D83" s="2">
-        <v>30</v>
-      </c>
-      <c r="E83" s="2">
-        <v>27</v>
-      </c>
-      <c r="F83" s="2">
-        <v>72</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H83" s="2">
-        <v>18</v>
-      </c>
-      <c r="I83" s="2">
-        <v>22</v>
-      </c>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2">
-        <v>1</v>
-      </c>
       <c r="L83" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E84" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F84" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H84" s="2">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I84" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J84" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K84" s="2">
         <v>1</v>
@@ -5243,34 +5231,34 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C85" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D85" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E85" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F85" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H85" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I85" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" s="2">
         <v>1</v>
@@ -5281,13 +5269,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C86" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" s="2">
         <v>35</v>
@@ -5319,83 +5307,83 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C87" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D87" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E87" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F87" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H87" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I87" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L87" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C88" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D88" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E88" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F88" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H88" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L88" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>146</v>
@@ -5433,83 +5421,83 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E90" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F90" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H90" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I90" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="K90" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L90" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C91" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E91" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H91" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I91" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J91" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K91" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L91" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>144</v>
@@ -5547,13 +5535,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C93" s="2">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D93" s="2">
         <v>17</v>
@@ -5565,13 +5553,13 @@
         <v>22</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H93" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I93" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J93" s="2">
         <v>2</v>
@@ -5585,7 +5573,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>144</v>
@@ -5623,34 +5611,34 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C95" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D95" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E95" s="2">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F95" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H95" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I95" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J95" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K95" s="2">
         <v>1</v>
@@ -5661,7 +5649,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>148</v>
@@ -5699,45 +5687,45 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C97" s="2">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D97" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E97" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F97" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H97" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I97" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
       </c>
       <c r="K97" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L97" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>144</v>
@@ -5775,60 +5763,60 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C99" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D99" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E99" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F99" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H99" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I99" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
       </c>
       <c r="K99" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L99" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E100" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F100" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>144</v>
@@ -5851,31 +5839,31 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C101" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D101" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E101" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F101" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H101" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I101" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
@@ -5884,24 +5872,24 @@
         <v>1</v>
       </c>
       <c r="L101" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C102" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D102" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E102" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F102" s="2">
         <v>50</v>
@@ -5913,13 +5901,13 @@
         <v>17</v>
       </c>
       <c r="I102" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J102" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K102" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L102" s="2">
         <v>5</v>
@@ -5927,45 +5915,45 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C103" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E103" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F103" s="2">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H103" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I103" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J103" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K103" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L103" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>146</v>
@@ -5974,19 +5962,19 @@
         <v>6</v>
       </c>
       <c r="D104" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E104" s="2">
         <v>27</v>
       </c>
       <c r="F104" s="2">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H104" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I104" s="2">
         <v>22</v>
@@ -6003,7 +5991,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>146</v>
@@ -6018,7 +6006,7 @@
         <v>27</v>
       </c>
       <c r="F105" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>144</v>
@@ -6041,22 +6029,22 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D106" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E106" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F106" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>144</v>
@@ -6065,86 +6053,86 @@
         <v>17</v>
       </c>
       <c r="I106" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J106" s="2">
         <v>1</v>
       </c>
       <c r="K106" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L106" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E107" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F107" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H107" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I107" s="2">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J107" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K107" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L107" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C108" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D108" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E108" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F108" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H108" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I108" s="2">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K108" s="2">
         <v>1</v>
@@ -6155,69 +6143,69 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C109" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D109" s="2">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E109" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F109" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H109" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I109" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J109" s="2">
         <v>1</v>
       </c>
       <c r="K109" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L109" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C110" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D110" s="2">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E110" s="2">
+        <v>48</v>
+      </c>
+      <c r="F110" s="2">
+        <v>49</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H110" s="2">
+        <v>17</v>
+      </c>
+      <c r="I110" s="2">
         <v>20</v>
-      </c>
-      <c r="F110" s="2">
-        <v>22</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H110" s="2">
-        <v>50</v>
-      </c>
-      <c r="I110" s="2">
-        <v>66</v>
       </c>
       <c r="J110" s="2">
         <v>1</v>
@@ -6231,31 +6219,31 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C111" s="2">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D111" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E111" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F111" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H111" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I111" s="2">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J111" s="2">
         <v>1</v>
@@ -6269,7 +6257,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>147</v>
@@ -6281,19 +6269,19 @@
         <v>45</v>
       </c>
       <c r="E112" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F112" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H112" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I112" s="2">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J112" s="2">
         <v>1</v>
@@ -6307,72 +6295,72 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C113" s="2">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45</v>
+      </c>
+      <c r="E113" s="2">
+        <v>66</v>
+      </c>
+      <c r="F113" s="2">
+        <v>50</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C113" s="2">
-        <v>6</v>
-      </c>
-      <c r="D113" s="2">
+      <c r="H113" s="2">
         <v>30</v>
       </c>
-      <c r="E113" s="2">
-        <v>27</v>
-      </c>
-      <c r="F113" s="2">
-        <v>31</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H113" s="2">
-        <v>17</v>
-      </c>
       <c r="I113" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J113" s="2">
         <v>1</v>
       </c>
       <c r="K113" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L113" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C114" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E114" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F114" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H114" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I114" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J114" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114" s="2">
         <v>1</v>
@@ -6383,45 +6371,45 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D115" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E115" s="2">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F115" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H115" s="2">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I115" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J115" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K115" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L115" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>147</v>
@@ -6430,25 +6418,25 @@
         <v>12</v>
       </c>
       <c r="D116" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E116" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H116" s="2">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I116" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J116" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K116" s="2">
         <v>4</v>
@@ -6459,22 +6447,22 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C117" s="2">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D117" s="2">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E117" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>144</v>
@@ -6483,21 +6471,21 @@
         <v>17</v>
       </c>
       <c r="I117" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J117" s="2">
         <v>1</v>
       </c>
       <c r="K117" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L117" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>146</v>
@@ -6535,31 +6523,31 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C119" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D119" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E119" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F119" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H119" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I119" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J119" s="2">
         <v>1</v>
@@ -6573,31 +6561,31 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C120" s="2">
+        <v>69</v>
+      </c>
+      <c r="D120" s="2">
+        <v>17</v>
+      </c>
+      <c r="E120" s="2">
+        <v>20</v>
+      </c>
+      <c r="F120" s="2">
+        <v>22</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="2">
-        <v>6</v>
-      </c>
-      <c r="D120" s="2">
+      <c r="H120" s="2">
+        <v>31</v>
+      </c>
+      <c r="I120" s="2">
         <v>30</v>
-      </c>
-      <c r="E120" s="2">
-        <v>27</v>
-      </c>
-      <c r="F120" s="2">
-        <v>31</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H120" s="2">
-        <v>17</v>
-      </c>
-      <c r="I120" s="2">
-        <v>22</v>
       </c>
       <c r="J120" s="2">
         <v>1</v>
@@ -6611,98 +6599,98 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C121" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D121" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E121" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F121" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H121" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I121" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J121" s="2">
         <v>1</v>
       </c>
       <c r="K121" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L121" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" s="2">
+        <v>69</v>
+      </c>
+      <c r="D122" s="2">
+        <v>17</v>
+      </c>
+      <c r="E122" s="2">
+        <v>20</v>
+      </c>
+      <c r="F122" s="2">
+        <v>22</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C122" s="2">
-        <v>6</v>
-      </c>
-      <c r="D122" s="2">
-        <v>29</v>
-      </c>
-      <c r="E122" s="2">
-        <v>27</v>
-      </c>
-      <c r="F122" s="2">
-        <v>72</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H122" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I122" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J122" s="2">
         <v>1</v>
       </c>
       <c r="K122" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L122" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C123" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D123" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E123" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F123" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>144</v>
@@ -6725,60 +6713,60 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C124" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E124" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F124" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H124" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I124" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J124" s="2">
         <v>1</v>
       </c>
       <c r="K124" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L124" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C125" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E125" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F125" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>144</v>
@@ -6787,36 +6775,36 @@
         <v>17</v>
       </c>
       <c r="I125" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J125" s="2">
         <v>1</v>
       </c>
       <c r="K125" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L125" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C126" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D126" s="2">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E126" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F126" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>144</v>
@@ -6825,36 +6813,36 @@
         <v>17</v>
       </c>
       <c r="I126" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J126" s="2">
         <v>1</v>
       </c>
       <c r="K126" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L126" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C127" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D127" s="2">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E127" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F127" s="2">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>144</v>
@@ -6863,83 +6851,83 @@
         <v>17</v>
       </c>
       <c r="I127" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J127" s="2">
         <v>1</v>
       </c>
       <c r="K127" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L127" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D128" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E128" s="2">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F128" s="2">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H128" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I128" s="2">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J128" s="2">
         <v>1</v>
       </c>
       <c r="K128" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L128" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C129" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D129" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E129" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H129" s="2">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I129" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J129" s="2">
         <v>1</v>
@@ -6953,121 +6941,121 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C130" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D130" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E130" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F130" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H130" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I130" s="2">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J130" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K130" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L130" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C131" s="2">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D131" s="2">
         <v>17</v>
       </c>
       <c r="E131" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F131" s="2">
         <v>22</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H131" s="2">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I131" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J131" s="2">
         <v>2</v>
       </c>
       <c r="K131" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L131" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C132" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D132" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E132" s="2">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F132" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H132" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I132" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J132" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K132" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L132" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>148</v>
@@ -7105,28 +7093,28 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C134" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D134" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E134" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F134" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H134" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I134" s="2">
         <v>22</v>
@@ -7135,77 +7123,77 @@
         <v>1</v>
       </c>
       <c r="K134" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L134" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D135" s="2">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E135" s="2">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="F135" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H135" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I135" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J135" s="2">
         <v>1</v>
       </c>
       <c r="K135" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L135" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="2">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2">
+        <v>73</v>
+      </c>
+      <c r="E136" s="2">
+        <v>66</v>
+      </c>
+      <c r="F136" s="2">
+        <v>50</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="2">
-        <v>6</v>
-      </c>
-      <c r="D136" s="2">
-        <v>28</v>
-      </c>
-      <c r="E136" s="2">
-        <v>27</v>
-      </c>
-      <c r="F136" s="2">
-        <v>72</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H136" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I136" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J136" s="2">
         <v>1</v>
@@ -7219,22 +7207,22 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C137" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D137" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E137" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F137" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>144</v>
@@ -7243,21 +7231,21 @@
         <v>17</v>
       </c>
       <c r="I137" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J137" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K137" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L137" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>147</v>
@@ -7295,22 +7283,22 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C139" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D139" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E139" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F139" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>144</v>
@@ -7319,21 +7307,21 @@
         <v>17</v>
       </c>
       <c r="I139" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J139" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K139" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L139" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>146</v>
@@ -7342,7 +7330,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E140" s="2">
         <v>27</v>
@@ -7371,98 +7359,98 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C141" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D141" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E141" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F141" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H141" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I141" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J141" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K141" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L141" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C142" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D142" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E142" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F142" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H142" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I142" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J142" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K142" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L142" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D143" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E143" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>144</v>
@@ -7471,162 +7459,162 @@
         <v>17</v>
       </c>
       <c r="I143" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J143" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K143" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L143" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C144" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D144" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E144" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F144" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H144" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I144" s="2">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J144" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K144" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L144" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C145" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D145" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E145" s="2">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F145" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H145" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I145" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J145" s="2">
         <v>2</v>
       </c>
       <c r="K145" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L145" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C146" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D146" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E146" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F146" s="2">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H146" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I146" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J146" s="2">
         <v>2</v>
       </c>
       <c r="K146" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L146" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2</v>
+      </c>
+      <c r="D147" s="2">
+        <v>17</v>
+      </c>
+      <c r="E147" s="2">
+        <v>21</v>
+      </c>
+      <c r="F147" s="2">
+        <v>24</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C147" s="2">
-        <v>6</v>
-      </c>
-      <c r="D147" s="2">
-        <v>28</v>
-      </c>
-      <c r="E147" s="2">
-        <v>27</v>
-      </c>
-      <c r="F147" s="2">
+      <c r="H147" s="2">
+        <v>30</v>
+      </c>
+      <c r="I147" s="2">
         <v>31</v>
       </c>
-      <c r="G147" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H147" s="2">
-        <v>18</v>
-      </c>
-      <c r="I147" s="2">
-        <v>22</v>
-      </c>
       <c r="J147" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K147" s="2">
         <v>1</v>
@@ -7637,7 +7625,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>146</v>
@@ -7675,34 +7663,34 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C149" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D149" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E149" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F149" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H149" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I149" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="J149" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K149" s="2">
         <v>1</v>
@@ -7713,45 +7701,45 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C150" s="2">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D150" s="2">
         <v>17</v>
       </c>
       <c r="E150" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F150" s="2">
         <v>22</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H150" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I150" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J150" s="2">
         <v>2</v>
       </c>
       <c r="K150" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L150" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>144</v>
@@ -7766,7 +7754,7 @@
         <v>20</v>
       </c>
       <c r="F151" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>147</v>
@@ -7778,7 +7766,7 @@
         <v>66</v>
       </c>
       <c r="J151" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K151" s="2">
         <v>4</v>
@@ -7789,72 +7777,72 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C152" s="2">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D152" s="2">
         <v>17</v>
       </c>
       <c r="E152" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F152" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H152" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I152" s="2">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="J152" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K152" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L152" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C153" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D153" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E153" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F153" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H153" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I153" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J153" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K153" s="2">
         <v>1</v>
@@ -7865,34 +7853,34 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C154" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D154" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E154" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F154" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H154" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I154" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J154" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K154" s="2">
         <v>1</v>
@@ -7903,34 +7891,34 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C155" s="2">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2">
+        <v>17</v>
+      </c>
+      <c r="E155" s="2">
+        <v>19</v>
+      </c>
+      <c r="F155" s="2">
+        <v>22</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C155" s="2">
-        <v>6</v>
-      </c>
-      <c r="D155" s="2">
-        <v>28</v>
-      </c>
-      <c r="E155" s="2">
-        <v>27</v>
-      </c>
-      <c r="F155" s="2">
-        <v>72</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H155" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I155" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J155" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K155" s="2">
         <v>1</v>
@@ -7941,7 +7929,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>146</v>
@@ -7979,7 +7967,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>146</v>
@@ -8017,16 +8005,16 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C158" s="2">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D158" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E158" s="2">
         <v>27</v>
@@ -8038,7 +8026,7 @@
         <v>144</v>
       </c>
       <c r="H158" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I158" s="2">
         <v>22</v>
@@ -8055,28 +8043,28 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C159" s="2">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D159" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E159" s="2">
         <v>27</v>
       </c>
       <c r="F159" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H159" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I159" s="2">
         <v>22</v>
@@ -8093,28 +8081,28 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C160" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D160" s="2">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E160" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F160" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H160" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I160" s="2">
         <v>22</v>
@@ -8131,22 +8119,22 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C161" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E161" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F161" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>144</v>
@@ -8155,21 +8143,21 @@
         <v>17</v>
       </c>
       <c r="I161" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J161" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K161" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L161" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>147</v>
@@ -8207,22 +8195,22 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C163" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D163" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E163" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F163" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>144</v>
@@ -8231,48 +8219,48 @@
         <v>17</v>
       </c>
       <c r="I163" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J163" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K163" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L163" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C164" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D164" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E164" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F164" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H164" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I164" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J164" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K164" s="2">
         <v>1</v>
@@ -8283,34 +8271,34 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C165" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D165" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E165" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F165" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H165" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I165" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J165" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K165" s="2">
         <v>1</v>
@@ -8321,34 +8309,34 @@
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C166" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D166" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E166" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F166" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H166" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I166" s="2">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J166" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K166" s="2">
         <v>1</v>
@@ -8359,7 +8347,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>144</v>
@@ -8371,19 +8359,19 @@
         <v>17</v>
       </c>
       <c r="E167" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F167" s="2">
         <v>22</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H167" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I167" s="2">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="J167" s="2">
         <v>2</v>
@@ -8397,113 +8385,113 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C168" s="2">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D168" s="2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E168" s="2">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F168" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H168" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I168" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J168" s="2">
         <v>2</v>
       </c>
       <c r="K168" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L168" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C169" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D169" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E169" s="2">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F169" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H169" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I169" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J169" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K169" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L169" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C170" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D170" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E170" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F170" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H170" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I170" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J170" s="2">
         <v>1</v>
       </c>
       <c r="K170" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L170" s="2">
         <v>6</v>
@@ -8511,22 +8499,22 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C171" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D171" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E171" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F171" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>144</v>
@@ -8535,13 +8523,13 @@
         <v>17</v>
       </c>
       <c r="I171" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J171" s="2">
         <v>1</v>
       </c>
       <c r="K171" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L171" s="2">
         <v>6</v>
@@ -8549,7 +8537,7 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>146</v>
@@ -8558,19 +8546,19 @@
         <v>6</v>
       </c>
       <c r="D172" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E172" s="2">
         <v>27</v>
       </c>
       <c r="F172" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H172" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I172" s="2">
         <v>22</v>
@@ -8587,13 +8575,13 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C173" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D173" s="2">
         <v>29</v>
@@ -8625,28 +8613,28 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C174" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D174" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E174" s="2">
         <v>27</v>
       </c>
       <c r="F174" s="2">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H174" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I174" s="2">
         <v>22</v>
@@ -8663,7 +8651,7 @@
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>146</v>
@@ -8672,30 +8660,68 @@
         <v>6</v>
       </c>
       <c r="D175" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E175" s="2">
         <v>27</v>
       </c>
       <c r="F175" s="2">
+        <v>33</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H175" s="2">
+        <v>17</v>
+      </c>
+      <c r="I175" s="2">
+        <v>22</v>
+      </c>
+      <c r="J175" s="2">
+        <v>1</v>
+      </c>
+      <c r="K175" s="2">
+        <v>1</v>
+      </c>
+      <c r="L175" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C176" s="2">
+        <v>6</v>
+      </c>
+      <c r="D176" s="2">
+        <v>29</v>
+      </c>
+      <c r="E176" s="2">
+        <v>27</v>
+      </c>
+      <c r="F176" s="2">
         <v>72</v>
       </c>
-      <c r="G175" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H175" s="2">
+      <c r="G176" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H176" s="2">
         <v>18</v>
       </c>
-      <c r="I175" s="2">
-        <v>22</v>
-      </c>
-      <c r="J175" s="2">
-        <v>1</v>
-      </c>
-      <c r="K175" s="2">
-        <v>1</v>
-      </c>
-      <c r="L175" s="2">
+      <c r="I176" s="2">
+        <v>22</v>
+      </c>
+      <c r="J176" s="2">
+        <v>1</v>
+      </c>
+      <c r="K176" s="2">
+        <v>1</v>
+      </c>
+      <c r="L176" s="2">
         <v>6</v>
       </c>
     </row>
@@ -8709,15 +8735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC7255B5-0968-4667-B015-2760C4D1E546}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-    <sheetView topLeftCell="A10" workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
-    <sheetView tabSelected="1" workbookViewId="4"/>
-    <sheetView workbookViewId="5"/>
-    <sheetView workbookViewId="6"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8781,15 +8799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFDA4B6-5547-4835-A5AC-A5FE9CF66F30}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView tabSelected="1" workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
-    <sheetView workbookViewId="4"/>
-    <sheetView workbookViewId="5"/>
-    <sheetView workbookViewId="6"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8856,15 +8866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63A9EAE-C95D-4B49-8103-B82125AAD9B1}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
-    <sheetView workbookViewId="4"/>
-    <sheetView tabSelected="1" workbookViewId="5"/>
-    <sheetView workbookViewId="6"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8925,15 +8927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FBB1D2-6153-4D6B-B80D-AC9021E504A0}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
-    <sheetView workbookViewId="4"/>
-    <sheetView workbookViewId="5"/>
-    <sheetView workbookViewId="6"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8994,15 +8988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCAF1CB-39C7-4C16-9870-47B1B866CBE9}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
-    <sheetView tabSelected="1" workbookViewId="3"/>
-    <sheetView workbookViewId="4"/>
-    <sheetView workbookViewId="5"/>
-    <sheetView workbookViewId="6"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9063,17 +9049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F1045C-164A-478B-8C43-14F2047C816F}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-    <sheetView workbookViewId="2"/>
-    <sheetView workbookViewId="3"/>
-    <sheetView workbookViewId="4"/>
-    <sheetView workbookViewId="5"/>
-    <sheetView workbookViewId="6"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Champion-Runes.xlsx
+++ b/Champion-Runes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duc\Desktop\IRL Useful\ARAM Runes Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5100FC36-4C7E-4422-A5C5-7C21E19C8F66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928EA899-3F84-4CF2-B8EA-0BB84CC80476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E613EAC8-4DF4-4710-9363-6972E00CBF81}"/>
   </bookViews>
@@ -2022,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809EE2C-19B1-4BE7-BC2A-D94C2024DB91}">
   <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6240,10 +6240,10 @@
         <v>146</v>
       </c>
       <c r="H111" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I111" s="2">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="J111" s="2">
         <v>1</v>

--- a/Champion-Runes.xlsx
+++ b/Champion-Runes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duc\Desktop\IRL Useful\ARAM Runes Assistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928EA899-3F84-4CF2-B8EA-0BB84CC80476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB35B069-09EE-4AE2-A681-2D4DB5D66C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E613EAC8-4DF4-4710-9363-6972E00CBF81}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="197">
   <si>
     <t>Keystone</t>
   </si>
@@ -613,6 +613,21 @@
   </si>
   <si>
     <t>ChoGath</t>
+  </si>
+  <si>
+    <t>Sett</t>
+  </si>
+  <si>
+    <t>Aphelios</t>
+  </si>
+  <si>
+    <t>Voli</t>
+  </si>
+  <si>
+    <t>Xin</t>
+  </si>
+  <si>
+    <t>Senna</t>
   </si>
 </sst>
 </file>
@@ -2020,10 +2035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D809EE2C-19B1-4BE7-BC2A-D94C2024DB91}">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,16 +2358,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>21</v>
@@ -2361,13 +2376,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H9" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
@@ -2376,50 +2391,50 @@
         <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H10" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>148</v>
@@ -2457,72 +2472,72 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H12" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2">
+        <v>19</v>
+      </c>
+      <c r="F13" s="2">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="2">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="H13" s="2">
         <v>35</v>
       </c>
-      <c r="E13" s="2">
+      <c r="I13" s="2">
         <v>37</v>
       </c>
-      <c r="F13" s="2">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="2">
-        <v>17</v>
-      </c>
-      <c r="I13" s="2">
-        <v>22</v>
-      </c>
       <c r="J13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -2533,22 +2548,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>144</v>
@@ -2557,21 +2572,21 @@
         <v>17</v>
       </c>
       <c r="I14" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>147</v>
@@ -2609,22 +2624,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>144</v>
@@ -2633,36 +2648,36 @@
         <v>17</v>
       </c>
       <c r="I16" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>144</v>
@@ -2671,135 +2686,135 @@
         <v>17</v>
       </c>
       <c r="I17" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H18" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I18" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C19" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
         <v>17</v>
       </c>
       <c r="E19" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="2">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I19" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="2">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2">
-        <v>38</v>
-      </c>
       <c r="F20" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H20" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I20" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>148</v>
@@ -2837,45 +2852,45 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C22" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F22" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H22" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I22" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>147</v>
@@ -2913,7 +2928,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>147</v>
@@ -2951,113 +2966,113 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H25" s="2">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I25" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L25" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C26" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2">
         <v>17</v>
       </c>
       <c r="E26" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F26" s="2">
         <v>22</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H26" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I26" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="2">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2">
+        <v>22</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="2">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2">
-        <v>73</v>
-      </c>
-      <c r="E27" s="2">
-        <v>66</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="H27" s="2">
+        <v>51</v>
+      </c>
+      <c r="I27" s="2">
         <v>50</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H27" s="2">
-        <v>17</v>
-      </c>
-      <c r="I27" s="2">
-        <v>22</v>
-      </c>
       <c r="J27" s="2">
         <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L27" s="2">
         <v>5</v>
@@ -3065,22 +3080,22 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>144</v>
@@ -3089,13 +3104,13 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
         <v>5</v>
@@ -3103,7 +3118,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>147</v>
@@ -3141,72 +3156,72 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F30" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H30" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E31" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H31" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I31" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J31" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -3217,13 +3232,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C32" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2">
         <v>30</v>
@@ -3232,7 +3247,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>144</v>
@@ -3255,7 +3270,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>146</v>
@@ -3270,7 +3285,7 @@
         <v>27</v>
       </c>
       <c r="F33" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>144</v>
@@ -3293,22 +3308,22 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="2">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2">
-        <v>55</v>
-      </c>
       <c r="E34" s="2">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>144</v>
@@ -3331,28 +3346,28 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F35" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H35" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I35" s="2">
         <v>22</v>
@@ -3369,7 +3384,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>146</v>
@@ -3407,136 +3422,136 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F37" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H37" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I37" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L37" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F38" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H38" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I38" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J38" s="2">
         <v>1</v>
       </c>
       <c r="K38" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L38" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E39" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F39" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H39" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J39" s="2">
         <v>1</v>
       </c>
       <c r="K39" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C40" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>144</v>
@@ -3545,21 +3560,21 @@
         <v>17</v>
       </c>
       <c r="I40" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J40" s="2">
         <v>1</v>
       </c>
       <c r="K40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L40" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>147</v>
@@ -3597,31 +3612,31 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C42" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F42" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H42" s="2">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="I42" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -3630,18 +3645,18 @@
         <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2">
         <v>17</v>
@@ -3656,16 +3671,16 @@
         <v>147</v>
       </c>
       <c r="H43" s="2">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="I43" s="2">
         <v>50</v>
       </c>
       <c r="J43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
         <v>5</v>
@@ -3673,34 +3688,34 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>17</v>
+      </c>
+      <c r="E44" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>22</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="2">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2">
-        <v>45</v>
-      </c>
-      <c r="E44" s="2">
-        <v>66</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="H44" s="2">
+        <v>51</v>
+      </c>
+      <c r="I44" s="2">
         <v>50</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="2">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2">
-        <v>72</v>
-      </c>
       <c r="J44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="2">
         <v>4</v>
@@ -3711,22 +3726,22 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>146</v>
@@ -3738,94 +3753,94 @@
         <v>72</v>
       </c>
       <c r="J45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L45" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C46" s="2">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2">
         <v>17</v>
       </c>
       <c r="E46" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F46" s="2">
         <v>22</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" s="2">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I46" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="J46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D47" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E47" s="2">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F47" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H47" s="2">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I47" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J47" s="2">
         <v>1</v>
       </c>
       <c r="K47" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L47" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>148</v>
@@ -3863,45 +3878,45 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C49" s="2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E49" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F49" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H49" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I49" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>144</v>
@@ -3913,10 +3928,10 @@
         <v>17</v>
       </c>
       <c r="E50" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>147</v>
@@ -3928,10 +3943,10 @@
         <v>50</v>
       </c>
       <c r="J50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L50" s="2">
         <v>5</v>
@@ -3939,45 +3954,45 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D51" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E51" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F51" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H51" s="2">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I51" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="2">
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>148</v>
@@ -3998,7 +4013,7 @@
         <v>144</v>
       </c>
       <c r="H52" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I52" s="2">
         <v>22</v>
@@ -4015,45 +4030,45 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E53" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F53" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H53" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I53" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="J53" s="2">
         <v>1</v>
       </c>
       <c r="K53" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>144</v>
@@ -4091,7 +4106,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>144</v>
@@ -4129,7 +4144,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>144</v>
@@ -4141,22 +4156,22 @@
         <v>17</v>
       </c>
       <c r="E56" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F56" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>146</v>
       </c>
       <c r="H56" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I56" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="J56" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" s="2">
         <v>4</v>
@@ -4167,107 +4182,107 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="2">
+        <v>69</v>
+      </c>
+      <c r="D57" s="2">
+        <v>17</v>
+      </c>
+      <c r="E57" s="2">
+        <v>19</v>
+      </c>
+      <c r="F57" s="2">
+        <v>24</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C57" s="2">
-        <v>6</v>
-      </c>
-      <c r="D57" s="2">
+      <c r="H57" s="2">
         <v>29</v>
       </c>
-      <c r="E57" s="2">
-        <v>27</v>
-      </c>
-      <c r="F57" s="2">
-        <v>33</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="2">
-        <v>17</v>
-      </c>
       <c r="I57" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L57" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C58" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E58" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F58" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H58" s="2">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I58" s="2">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2">
         <v>1</v>
       </c>
       <c r="L58" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C59" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2">
         <v>17</v>
       </c>
       <c r="E59" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F59" s="2">
         <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H59" s="2">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I59" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J59" s="2">
         <v>2</v>
@@ -4281,13 +4296,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="2">
         <v>17</v>
@@ -4319,7 +4334,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>144</v>
@@ -4357,34 +4372,34 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C62" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E62" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F62" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H62" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I62" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" s="2">
         <v>1</v>
@@ -4395,7 +4410,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>146</v>
@@ -4433,34 +4448,34 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C64" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D64" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E64" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F64" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H64" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I64" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" s="2">
         <v>1</v>
@@ -4471,34 +4486,34 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>17</v>
+      </c>
+      <c r="E65" s="2">
+        <v>21</v>
+      </c>
+      <c r="F65" s="2">
+        <v>22</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="2">
-        <v>6</v>
-      </c>
-      <c r="D65" s="2">
+      <c r="H65" s="2">
         <v>29</v>
       </c>
-      <c r="E65" s="2">
-        <v>27</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="I65" s="2">
         <v>31</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H65" s="2">
-        <v>17</v>
-      </c>
-      <c r="I65" s="2">
-        <v>22</v>
-      </c>
       <c r="J65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" s="2">
         <v>1</v>
@@ -4509,7 +4524,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>146</v>
@@ -4518,22 +4533,22 @@
         <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66" s="2">
         <v>27</v>
       </c>
       <c r="F66" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H66" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I66" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J66" s="2">
         <v>1</v>
@@ -4547,31 +4562,31 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C67" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D67" s="2">
+        <v>30</v>
+      </c>
+      <c r="E67" s="2">
+        <v>27</v>
+      </c>
+      <c r="F67" s="2">
+        <v>72</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" s="2">
         <v>18</v>
       </c>
-      <c r="E67" s="2">
-        <v>20</v>
-      </c>
-      <c r="F67" s="2">
-        <v>22</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H67" s="2">
-        <v>30</v>
-      </c>
       <c r="I67" s="2">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -4580,12 +4595,12 @@
         <v>1</v>
       </c>
       <c r="L67" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>144</v>
@@ -4623,32 +4638,32 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>69</v>
+      </c>
+      <c r="D69" s="2">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2">
+        <v>20</v>
+      </c>
+      <c r="F69" s="2">
+        <v>22</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="2">
-        <v>6</v>
-      </c>
-      <c r="D69" s="2">
+      <c r="H69" s="2">
         <v>30</v>
       </c>
-      <c r="E69" s="2">
-        <v>27</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="I69" s="2">
         <v>31</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" s="2">
-        <v>17</v>
-      </c>
-      <c r="I69" s="2">
-        <v>22</v>
-      </c>
       <c r="J69" s="2">
         <v>1</v>
       </c>
@@ -4656,12 +4671,12 @@
         <v>1</v>
       </c>
       <c r="L69" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>146</v>
@@ -4699,31 +4714,31 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C71" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D71" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E71" s="2">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F71" s="2">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H71" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I71" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J71" s="2">
         <v>1</v>
@@ -4737,75 +4752,75 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C72" s="2">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="E72" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H72" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I72" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J72" s="2">
         <v>1</v>
       </c>
       <c r="K72" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L72" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="2">
+        <v>69</v>
+      </c>
+      <c r="D73" s="2">
+        <v>17</v>
+      </c>
+      <c r="E73" s="2">
+        <v>20</v>
+      </c>
+      <c r="F73" s="2">
+        <v>22</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="2">
+      <c r="H73" s="2">
+        <v>30</v>
+      </c>
+      <c r="I73" s="2">
+        <v>31</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
         <v>4</v>
-      </c>
-      <c r="D73" s="2">
-        <v>30</v>
-      </c>
-      <c r="E73" s="2">
-        <v>27</v>
-      </c>
-      <c r="F73" s="2">
-        <v>72</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H73" s="2">
-        <v>54</v>
-      </c>
-      <c r="I73" s="2">
-        <v>58</v>
-      </c>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
       </c>
       <c r="L73" s="2">
         <v>5</v>
@@ -4813,13 +4828,13 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C74" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" s="2">
         <v>30</v>
@@ -4828,16 +4843,16 @@
         <v>27</v>
       </c>
       <c r="F74" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H74" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I74" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="J74" s="2">
         <v>1</v>
@@ -4846,12 +4861,12 @@
         <v>1</v>
       </c>
       <c r="L74" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>146</v>
@@ -4889,34 +4904,34 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C76" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E76" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F76" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H76" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I76" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" s="2">
         <v>1</v>
@@ -4927,83 +4942,83 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C77" s="2">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2">
         <v>17</v>
       </c>
       <c r="E77" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F77" s="2">
         <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H77" s="2">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I77" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J77" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K77" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L77" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C78" s="2">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D78" s="2">
         <v>17</v>
       </c>
       <c r="E78" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F78" s="2">
         <v>22</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H78" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I78" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K78" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L78" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>144</v>
@@ -5041,34 +5056,34 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C80" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D80" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E80" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F80" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H80" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I80" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" s="2">
         <v>1</v>
@@ -5079,45 +5094,45 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C81" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D81" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E81" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F81" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H81" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I81" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
       </c>
       <c r="K81" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L81" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>144</v>
@@ -5155,31 +5170,31 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C83" s="2">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D83" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E83" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F83" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H83" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I83" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -5193,72 +5208,72 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C84" s="2">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45</v>
+      </c>
+      <c r="E84" s="2">
+        <v>48</v>
+      </c>
+      <c r="F84" s="2">
+        <v>49</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H84" s="2">
+        <v>17</v>
+      </c>
+      <c r="I84" s="2">
+        <v>20</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2">
         <v>4</v>
       </c>
-      <c r="D84" s="2">
-        <v>30</v>
-      </c>
-      <c r="E84" s="2">
-        <v>27</v>
-      </c>
-      <c r="F84" s="2">
-        <v>72</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H84" s="2">
-        <v>18</v>
-      </c>
-      <c r="I84" s="2">
-        <v>22</v>
-      </c>
-      <c r="J84" s="2">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2">
-        <v>1</v>
-      </c>
       <c r="L84" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E85" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F85" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H85" s="2">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I85" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K85" s="2">
         <v>1</v>
@@ -5269,34 +5284,34 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C86" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E86" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F86" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H86" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I86" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K86" s="2">
         <v>1</v>
@@ -5307,13 +5322,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C87" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87" s="2">
         <v>35</v>
@@ -5345,83 +5360,83 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C88" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E88" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F88" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H88" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I88" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L88" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C89" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E89" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H89" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I89" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="K89" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L89" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>146</v>
@@ -5459,83 +5474,83 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C91" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E91" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F91" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H91" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I91" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
       </c>
       <c r="K91" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L91" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C92" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D92" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E92" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H92" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I92" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J92" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K92" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L92" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>144</v>
@@ -5573,13 +5588,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C94" s="2">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D94" s="2">
         <v>17</v>
@@ -5591,13 +5606,13 @@
         <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H94" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I94" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J94" s="2">
         <v>2</v>
@@ -5611,7 +5626,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>144</v>
@@ -5649,34 +5664,34 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C96" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D96" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E96" s="2">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F96" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H96" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I96" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J96" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96" s="2">
         <v>1</v>
@@ -5687,7 +5702,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>148</v>
@@ -5725,45 +5740,45 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C98" s="2">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="D98" s="2">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E98" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F98" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H98" s="2">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I98" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
       </c>
       <c r="K98" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L98" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>144</v>
@@ -5801,60 +5816,60 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C100" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D100" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E100" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F100" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H100" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I100" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J100" s="2">
         <v>1</v>
       </c>
       <c r="K100" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L100" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C101" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D101" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E101" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F101" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>144</v>
@@ -5877,31 +5892,31 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D102" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E102" s="2">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F102" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H102" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I102" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J102" s="2">
         <v>1</v>
@@ -5910,24 +5925,24 @@
         <v>1</v>
       </c>
       <c r="L102" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C103" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D103" s="2">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E103" s="2">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F103" s="2">
         <v>50</v>
@@ -5939,13 +5954,13 @@
         <v>17</v>
       </c>
       <c r="I103" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J103" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K103" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L103" s="2">
         <v>5</v>
@@ -5953,45 +5968,45 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C104" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E104" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F104" s="2">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H104" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I104" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J104" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K104" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L104" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>146</v>
@@ -6000,19 +6015,19 @@
         <v>6</v>
       </c>
       <c r="D105" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E105" s="2">
         <v>27</v>
       </c>
       <c r="F105" s="2">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H105" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I105" s="2">
         <v>22</v>
@@ -6029,7 +6044,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>146</v>
@@ -6044,7 +6059,7 @@
         <v>27</v>
       </c>
       <c r="F106" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>144</v>
@@ -6067,22 +6082,22 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D107" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E107" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F107" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>144</v>
@@ -6091,86 +6106,86 @@
         <v>17</v>
       </c>
       <c r="I107" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J107" s="2">
         <v>1</v>
       </c>
       <c r="K107" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L107" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E108" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H108" s="2">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I108" s="2">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J108" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L108" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C109" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D109" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E109" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F109" s="2">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H109" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I109" s="2">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J109" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K109" s="2">
         <v>1</v>
@@ -6181,69 +6196,69 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C110" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D110" s="2">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E110" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F110" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H110" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I110" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J110" s="2">
         <v>1</v>
       </c>
       <c r="K110" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L110" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C111" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D111" s="2">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E111" s="2">
+        <v>48</v>
+      </c>
+      <c r="F111" s="2">
+        <v>49</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H111" s="2">
+        <v>17</v>
+      </c>
+      <c r="I111" s="2">
         <v>20</v>
-      </c>
-      <c r="F111" s="2">
-        <v>22</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H111" s="2">
-        <v>29</v>
-      </c>
-      <c r="I111" s="2">
-        <v>31</v>
       </c>
       <c r="J111" s="2">
         <v>1</v>
@@ -6257,31 +6272,31 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D112" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E112" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="F112" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H112" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I112" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J112" s="2">
         <v>1</v>
@@ -6295,7 +6310,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>147</v>
@@ -6307,19 +6322,19 @@
         <v>45</v>
       </c>
       <c r="E113" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H113" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I113" s="2">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J113" s="2">
         <v>1</v>
@@ -6333,72 +6348,72 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C114" s="2">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45</v>
+      </c>
+      <c r="E114" s="2">
+        <v>66</v>
+      </c>
+      <c r="F114" s="2">
+        <v>50</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C114" s="2">
-        <v>6</v>
-      </c>
-      <c r="D114" s="2">
+      <c r="H114" s="2">
         <v>30</v>
       </c>
-      <c r="E114" s="2">
-        <v>27</v>
-      </c>
-      <c r="F114" s="2">
-        <v>31</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H114" s="2">
-        <v>17</v>
-      </c>
       <c r="I114" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="J114" s="2">
         <v>1</v>
       </c>
       <c r="K114" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L114" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C115" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E115" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F115" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H115" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I115" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J115" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" s="2">
         <v>1</v>
@@ -6409,45 +6424,45 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C116" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D116" s="2">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E116" s="2">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F116" s="2">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H116" s="2">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I116" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J116" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K116" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L116" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>147</v>
@@ -6456,25 +6471,25 @@
         <v>12</v>
       </c>
       <c r="D117" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E117" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F117" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H117" s="2">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I117" s="2">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="J117" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K117" s="2">
         <v>4</v>
@@ -6485,22 +6500,22 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C118" s="2">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D118" s="2">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E118" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F118" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>144</v>
@@ -6509,21 +6524,21 @@
         <v>17</v>
       </c>
       <c r="I118" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J118" s="2">
         <v>1</v>
       </c>
       <c r="K118" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L118" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>146</v>
@@ -6561,31 +6576,31 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D120" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E120" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F120" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H120" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I120" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J120" s="2">
         <v>1</v>
@@ -6599,31 +6614,31 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="2">
+        <v>69</v>
+      </c>
+      <c r="D121" s="2">
+        <v>17</v>
+      </c>
+      <c r="E121" s="2">
+        <v>20</v>
+      </c>
+      <c r="F121" s="2">
+        <v>22</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="2">
-        <v>6</v>
-      </c>
-      <c r="D121" s="2">
+      <c r="H121" s="2">
+        <v>31</v>
+      </c>
+      <c r="I121" s="2">
         <v>30</v>
-      </c>
-      <c r="E121" s="2">
-        <v>27</v>
-      </c>
-      <c r="F121" s="2">
-        <v>31</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H121" s="2">
-        <v>17</v>
-      </c>
-      <c r="I121" s="2">
-        <v>22</v>
       </c>
       <c r="J121" s="2">
         <v>1</v>
@@ -6637,98 +6652,98 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C122" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D122" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E122" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F122" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H122" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I122" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J122" s="2">
         <v>1</v>
       </c>
       <c r="K122" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L122" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="2">
+        <v>69</v>
+      </c>
+      <c r="D123" s="2">
+        <v>17</v>
+      </c>
+      <c r="E123" s="2">
+        <v>20</v>
+      </c>
+      <c r="F123" s="2">
+        <v>22</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C123" s="2">
-        <v>6</v>
-      </c>
-      <c r="D123" s="2">
-        <v>29</v>
-      </c>
-      <c r="E123" s="2">
-        <v>27</v>
-      </c>
-      <c r="F123" s="2">
-        <v>72</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H123" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I123" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J123" s="2">
         <v>1</v>
       </c>
       <c r="K123" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L123" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C124" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D124" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E124" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F124" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>144</v>
@@ -6751,60 +6766,60 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C125" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E125" s="2">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F125" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H125" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I125" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J125" s="2">
         <v>1</v>
       </c>
       <c r="K125" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L125" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C126" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E126" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F126" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>144</v>
@@ -6813,89 +6828,89 @@
         <v>17</v>
       </c>
       <c r="I126" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J126" s="2">
         <v>1</v>
       </c>
       <c r="K126" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L126" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C127" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="E127" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F127" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H127" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I127" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J127" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K127" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L127" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C128" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E128" s="2">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H128" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I128" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J128" s="2">
         <v>1</v>
       </c>
       <c r="K128" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L128" s="2">
         <v>6</v>
@@ -6903,45 +6918,45 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C129" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D129" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E129" s="2">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F129" s="2">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H129" s="2">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I129" s="2">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J129" s="2">
         <v>1</v>
       </c>
       <c r="K129" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L129" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>147</v>
@@ -6950,7 +6965,7 @@
         <v>10</v>
       </c>
       <c r="D130" s="2">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E130" s="2">
         <v>48</v>
@@ -6979,34 +6994,34 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C131" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D131" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E131" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F131" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H131" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I131" s="2">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J131" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" s="2">
         <v>1</v>
@@ -7017,34 +7032,34 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C132" s="2">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E132" s="2">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F132" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H132" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I132" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J132" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K132" s="2">
         <v>4</v>
@@ -7055,72 +7070,72 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C133" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D133" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E133" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H133" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I133" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J133" s="2">
         <v>1</v>
       </c>
       <c r="K133" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L133" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C134" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D134" s="2">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E134" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F134" s="2">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H134" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I134" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J134" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K134" s="2">
         <v>1</v>
@@ -7131,34 +7146,34 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C135" s="2">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="D135" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E135" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F135" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H135" s="2">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I135" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="J135" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K135" s="2">
         <v>4</v>
@@ -7169,31 +7184,31 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C136" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D136" s="2">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E136" s="2">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F136" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H136" s="2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I136" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J136" s="2">
         <v>1</v>
@@ -7207,28 +7222,28 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C137" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D137" s="2">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E137" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F137" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H137" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I137" s="2">
         <v>22</v>
@@ -7245,22 +7260,22 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C138" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D138" s="2">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E138" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F138" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>144</v>
@@ -7269,10 +7284,10 @@
         <v>17</v>
       </c>
       <c r="I138" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J138" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K138" s="2">
         <v>4</v>
@@ -7283,45 +7298,45 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C139" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D139" s="2">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E139" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H139" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I139" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J139" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K139" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L139" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>146</v>
@@ -7336,7 +7351,7 @@
         <v>27</v>
       </c>
       <c r="F140" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>144</v>
@@ -7359,22 +7374,22 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C141" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D141" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E141" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F141" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>144</v>
@@ -7383,27 +7398,27 @@
         <v>17</v>
       </c>
       <c r="I141" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J141" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K141" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L141" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C142" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D142" s="2">
         <v>45</v>
@@ -7412,19 +7427,19 @@
         <v>48</v>
       </c>
       <c r="F142" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H142" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I142" s="2">
         <v>20</v>
       </c>
       <c r="J142" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K142" s="2">
         <v>4</v>
@@ -7435,7 +7450,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>146</v>
@@ -7444,7 +7459,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143" s="2">
         <v>27</v>
@@ -7473,22 +7488,22 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D144" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E144" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>144</v>
@@ -7497,74 +7512,74 @@
         <v>17</v>
       </c>
       <c r="I144" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J144" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K144" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L144" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C145" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D145" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E145" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F145" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H145" s="2">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="I145" s="2">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J145" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K145" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L145" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C146" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D146" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E146" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F146" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>144</v>
@@ -7573,86 +7588,86 @@
         <v>17</v>
       </c>
       <c r="I146" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J146" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K146" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L146" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C147" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E147" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F147" s="2">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H147" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I147" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="J147" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K147" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L147" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C148" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D148" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E148" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F148" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H148" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I148" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J148" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K148" s="2">
         <v>1</v>
@@ -7663,45 +7678,45 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C149" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D149" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E149" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F149" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H149" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I149" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J149" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K149" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L149" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>144</v>
@@ -7716,7 +7731,7 @@
         <v>21</v>
       </c>
       <c r="F150" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>146</v>
@@ -7725,7 +7740,7 @@
         <v>30</v>
       </c>
       <c r="I150" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="J150" s="2">
         <v>2</v>
@@ -7739,83 +7754,83 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C151" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D151" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F151" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H151" s="2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I151" s="2">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K151" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L151" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C152" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D152" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F152" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H152" s="2">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I152" s="2">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J152" s="2">
         <v>1</v>
       </c>
       <c r="K152" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L152" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>144</v>
@@ -7833,13 +7848,13 @@
         <v>22</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H153" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I153" s="2">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J153" s="2">
         <v>2</v>
@@ -7853,110 +7868,110 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C154" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D154" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E154" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F154" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H154" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I154" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J154" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K154" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L154" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C155" s="2">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D155" s="2">
         <v>17</v>
       </c>
       <c r="E155" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F155" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H155" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I155" s="2">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="J155" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K155" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L155" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C156" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D156" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E156" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F156" s="2">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H156" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I156" s="2">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J156" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K156" s="2">
         <v>1</v>
@@ -7967,7 +7982,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>146</v>
@@ -7976,19 +7991,19 @@
         <v>6</v>
       </c>
       <c r="D157" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E157" s="2">
         <v>27</v>
       </c>
       <c r="F157" s="2">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H157" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I157" s="2">
         <v>22</v>
@@ -8005,34 +8020,34 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C158" s="2">
+        <v>3</v>
+      </c>
+      <c r="D158" s="2">
+        <v>17</v>
+      </c>
+      <c r="E158" s="2">
+        <v>19</v>
+      </c>
+      <c r="F158" s="2">
+        <v>22</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C158" s="2">
-        <v>6</v>
-      </c>
-      <c r="D158" s="2">
-        <v>28</v>
-      </c>
-      <c r="E158" s="2">
-        <v>27</v>
-      </c>
-      <c r="F158" s="2">
-        <v>72</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H158" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I158" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J158" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K158" s="2">
         <v>1</v>
@@ -8043,16 +8058,16 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C159" s="2">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D159" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E159" s="2">
         <v>27</v>
@@ -8064,7 +8079,7 @@
         <v>144</v>
       </c>
       <c r="H159" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I159" s="2">
         <v>22</v>
@@ -8081,7 +8096,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>146</v>
@@ -8090,13 +8105,13 @@
         <v>6</v>
       </c>
       <c r="D160" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E160" s="2">
         <v>27</v>
       </c>
       <c r="F160" s="2">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>144</v>
@@ -8119,28 +8134,28 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C161" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D161" s="2">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E161" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F161" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H161" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I161" s="2">
         <v>22</v>
@@ -8157,22 +8172,22 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C162" s="2">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="D162" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E162" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F162" s="2">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>144</v>
@@ -8181,74 +8196,74 @@
         <v>17</v>
       </c>
       <c r="I162" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J162" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K162" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L162" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C163" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D163" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E163" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F163" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H163" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I163" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J163" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K163" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L163" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C164" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E164" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F164" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>144</v>
@@ -8271,60 +8286,60 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C165" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D165" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E165" s="2">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F165" s="2">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H165" s="2">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I165" s="2">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="J165" s="2">
         <v>2</v>
       </c>
       <c r="K165" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L165" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C166" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D166" s="2">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E166" s="2">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="F166" s="2">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>144</v>
@@ -8333,86 +8348,86 @@
         <v>17</v>
       </c>
       <c r="I166" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J166" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K166" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L166" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C167" s="2">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D167" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E167" s="2">
+        <v>48</v>
+      </c>
+      <c r="F167" s="2">
+        <v>49</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H167" s="2">
+        <v>17</v>
+      </c>
+      <c r="I167" s="2">
         <v>20</v>
-      </c>
-      <c r="F167" s="2">
-        <v>22</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H167" s="2">
-        <v>50</v>
-      </c>
-      <c r="I167" s="2">
-        <v>66</v>
       </c>
       <c r="J167" s="2">
         <v>2</v>
       </c>
       <c r="K167" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L167" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C168" s="2">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D168" s="2">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E168" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F168" s="2">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H168" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I168" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J168" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K168" s="2">
         <v>1</v>
@@ -8423,66 +8438,66 @@
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C169" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D169" s="2">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E169" s="2">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="F169" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H169" s="2">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I169" s="2">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J169" s="2">
         <v>2</v>
       </c>
       <c r="K169" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L169" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C170" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D170" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E170" s="2">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F170" s="2">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H170" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I170" s="2">
         <v>22</v>
@@ -8499,37 +8514,37 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C171" s="2">
+        <v>69</v>
+      </c>
+      <c r="D171" s="2">
+        <v>17</v>
+      </c>
+      <c r="E171" s="2">
+        <v>20</v>
+      </c>
+      <c r="F171" s="2">
+        <v>22</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C171" s="2">
-        <v>12</v>
-      </c>
-      <c r="D171" s="2">
-        <v>45</v>
-      </c>
-      <c r="E171" s="2">
-        <v>48</v>
-      </c>
-      <c r="F171" s="2">
-        <v>49</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H171" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I171" s="2">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J171" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K171" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L171" s="2">
         <v>6</v>
@@ -8537,34 +8552,34 @@
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C172" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D172" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E172" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F172" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H172" s="2">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I172" s="2">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J172" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K172" s="2">
         <v>1</v>
@@ -8575,34 +8590,34 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C173" s="2">
+        <v>69</v>
+      </c>
+      <c r="D173" s="2">
+        <v>17</v>
+      </c>
+      <c r="E173" s="2">
+        <v>19</v>
+      </c>
+      <c r="F173" s="2">
+        <v>22</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C173" s="2">
-        <v>6</v>
-      </c>
-      <c r="D173" s="2">
-        <v>29</v>
-      </c>
-      <c r="E173" s="2">
-        <v>27</v>
-      </c>
-      <c r="F173" s="2">
-        <v>72</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="H173" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I173" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J173" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K173" s="2">
         <v>1</v>
@@ -8613,66 +8628,66 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C174" s="2">
+        <v>10</v>
+      </c>
+      <c r="D174" s="2">
+        <v>44</v>
+      </c>
+      <c r="E174" s="2">
+        <v>66</v>
+      </c>
+      <c r="F174" s="2">
+        <v>49</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H174" s="2">
+        <v>17</v>
+      </c>
+      <c r="I174" s="2">
+        <v>20</v>
+      </c>
+      <c r="J174" s="2">
+        <v>2</v>
+      </c>
+      <c r="K174" s="2">
         <v>4</v>
       </c>
-      <c r="D174" s="2">
-        <v>29</v>
-      </c>
-      <c r="E174" s="2">
-        <v>27</v>
-      </c>
-      <c r="F174" s="2">
-        <v>72</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H174" s="2">
-        <v>18</v>
-      </c>
-      <c r="I174" s="2">
-        <v>22</v>
-      </c>
-      <c r="J174" s="2">
-        <v>1</v>
-      </c>
-      <c r="K174" s="2">
-        <v>1</v>
-      </c>
       <c r="L174" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C175" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D175" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E175" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F175" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>144</v>
       </c>
       <c r="H175" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I175" s="2">
         <v>22</v>
@@ -8689,39 +8704,229 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C176" s="2">
+        <v>12</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45</v>
+      </c>
+      <c r="E176" s="2">
+        <v>48</v>
+      </c>
+      <c r="F176" s="2">
+        <v>49</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H176" s="2">
+        <v>17</v>
+      </c>
+      <c r="I176" s="2">
+        <v>20</v>
+      </c>
+      <c r="J176" s="2">
+        <v>1</v>
+      </c>
+      <c r="K176" s="2">
+        <v>4</v>
+      </c>
+      <c r="L176" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C177" s="2">
+        <v>6</v>
+      </c>
+      <c r="D177" s="2">
+        <v>30</v>
+      </c>
+      <c r="E177" s="2">
+        <v>27</v>
+      </c>
+      <c r="F177" s="2">
+        <v>31</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H177" s="2">
+        <v>17</v>
+      </c>
+      <c r="I177" s="2">
+        <v>22</v>
+      </c>
+      <c r="J177" s="2">
+        <v>1</v>
+      </c>
+      <c r="K177" s="2">
+        <v>1</v>
+      </c>
+      <c r="L177" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C178" s="2">
+        <v>6</v>
+      </c>
+      <c r="D178" s="2">
+        <v>29</v>
+      </c>
+      <c r="E178" s="2">
+        <v>27</v>
+      </c>
+      <c r="F178" s="2">
+        <v>72</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H178" s="2">
+        <v>18</v>
+      </c>
+      <c r="I178" s="2">
+        <v>22</v>
+      </c>
+      <c r="J178" s="2">
+        <v>1</v>
+      </c>
+      <c r="K178" s="2">
+        <v>1</v>
+      </c>
+      <c r="L178" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C179" s="2">
+        <v>4</v>
+      </c>
+      <c r="D179" s="2">
+        <v>29</v>
+      </c>
+      <c r="E179" s="2">
+        <v>27</v>
+      </c>
+      <c r="F179" s="2">
+        <v>72</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H179" s="2">
+        <v>18</v>
+      </c>
+      <c r="I179" s="2">
+        <v>22</v>
+      </c>
+      <c r="J179" s="2">
+        <v>1</v>
+      </c>
+      <c r="K179" s="2">
+        <v>1</v>
+      </c>
+      <c r="L179" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C180" s="2">
+        <v>6</v>
+      </c>
+      <c r="D180" s="2">
+        <v>30</v>
+      </c>
+      <c r="E180" s="2">
+        <v>27</v>
+      </c>
+      <c r="F180" s="2">
+        <v>33</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H180" s="2">
+        <v>17</v>
+      </c>
+      <c r="I180" s="2">
+        <v>22</v>
+      </c>
+      <c r="J180" s="2">
+        <v>1</v>
+      </c>
+      <c r="K180" s="2">
+        <v>1</v>
+      </c>
+      <c r="L180" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B181" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C176" s="2">
-        <v>6</v>
-      </c>
-      <c r="D176" s="2">
+      <c r="C181" s="2">
+        <v>6</v>
+      </c>
+      <c r="D181" s="2">
         <v>29</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E181" s="2">
         <v>27</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F181" s="2">
         <v>72</v>
       </c>
-      <c r="G176" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H176" s="2">
+      <c r="G181" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H181" s="2">
         <v>18</v>
       </c>
-      <c r="I176" s="2">
-        <v>22</v>
-      </c>
-      <c r="J176" s="2">
-        <v>1</v>
-      </c>
-      <c r="K176" s="2">
-        <v>1</v>
-      </c>
-      <c r="L176" s="2">
+      <c r="I181" s="2">
+        <v>22</v>
+      </c>
+      <c r="J181" s="2">
+        <v>1</v>
+      </c>
+      <c r="K181" s="2">
+        <v>1</v>
+      </c>
+      <c r="L181" s="2">
         <v>6</v>
       </c>
     </row>
